--- a/test.xlsx
+++ b/test.xlsx
@@ -1,18 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wwu/Code/not-versioned/cdc/xls_git/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="survey" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="choices" sheetId="2" r:id="rId4"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
   <si>
     <t>type</t>
   </si>
@@ -255,33 +271,44 @@
   </si>
   <si>
     <t>Hail</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>Snow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -296,109 +323,344 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.43"/>
-    <col customWidth="1" min="2" max="2" width="18.43"/>
-    <col customWidth="1" min="3" max="3" width="33.43"/>
-    <col customWidth="1" min="4" max="4" width="27.0"/>
-    <col customWidth="1" min="5" max="6" width="16.14"/>
-    <col customWidth="1" min="7" max="7" width="22.86"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +710,7 @@
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -476,7 +738,7 @@
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -504,7 +766,7 @@
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -532,7 +794,7 @@
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -560,7 +822,7 @@
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -588,7 +850,7 @@
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -616,7 +878,7 @@
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -644,7 +906,7 @@
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -672,7 +934,7 @@
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -694,7 +956,7 @@
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -724,7 +986,7 @@
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -761,7 +1023,7 @@
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -774,7 +1036,7 @@
       <c r="D13" s="16"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
         <v>33</v>
       </c>
@@ -790,10 +1052,10 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="H14" s="18">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -809,7 +1071,7 @@
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
@@ -823,7 +1085,7 @@
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
         <v>42</v>
       </c>
@@ -834,10 +1096,13 @@
         <v>44</v>
       </c>
       <c r="D17" s="16"/>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>45</v>
       </c>
@@ -855,7 +1120,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
@@ -869,7 +1134,7 @@
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -877,13 +1142,13 @@
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="20"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -892,20 +1157,20 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="16"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -918,4957 +1183,4960 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="16"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="D27" s="16"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="16"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="20"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="20"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="D31" s="16"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="16"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="16"/>
       <c r="K33" s="17"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="16"/>
       <c r="K34" s="17"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="16"/>
       <c r="K35" s="17"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="17"/>
       <c r="D36" s="16"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="16"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="16"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="16"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="16"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="20"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="16"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="16"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="16"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="16"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="16"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="16"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="16"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="16"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="16"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="16"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="16"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="16"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="16"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="16"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="20"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="16"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="G59" s="16"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
       <c r="G60" s="16"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="G61" s="16"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="G62" s="16"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="G63" s="16"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="G64" s="16"/>
     </row>
-    <row r="65">
+    <row r="65" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
       <c r="G65" s="16"/>
     </row>
-    <row r="66">
+    <row r="66" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
       <c r="G66" s="16"/>
     </row>
-    <row r="67">
+    <row r="67" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
       <c r="G67" s="16"/>
     </row>
-    <row r="68">
+    <row r="68" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
       <c r="G68" s="16"/>
     </row>
-    <row r="69">
+    <row r="69" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="G69" s="16"/>
     </row>
-    <row r="70">
+    <row r="70" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="G70" s="16"/>
     </row>
-    <row r="71">
+    <row r="71" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="G71" s="16"/>
     </row>
-    <row r="72">
+    <row r="72" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
       <c r="G72" s="16"/>
     </row>
-    <row r="73">
+    <row r="73" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="G73" s="16"/>
     </row>
-    <row r="74">
+    <row r="74" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
       <c r="G74" s="16"/>
     </row>
-    <row r="75">
+    <row r="75" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="G75" s="16"/>
     </row>
-    <row r="76">
+    <row r="76" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="G76" s="16"/>
     </row>
-    <row r="77">
+    <row r="77" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
       <c r="G77" s="16"/>
     </row>
-    <row r="78">
+    <row r="78" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
       <c r="G78" s="16"/>
     </row>
-    <row r="79">
+    <row r="79" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="G79" s="16"/>
     </row>
-    <row r="80">
+    <row r="80" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
       <c r="G80" s="16"/>
     </row>
-    <row r="81">
+    <row r="81" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
       <c r="G81" s="16"/>
     </row>
-    <row r="82">
+    <row r="82" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
       <c r="G82" s="16"/>
     </row>
-    <row r="83">
+    <row r="83" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="G83" s="16"/>
     </row>
-    <row r="84">
+    <row r="84" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="G84" s="16"/>
     </row>
-    <row r="85">
+    <row r="85" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
       <c r="G85" s="16"/>
     </row>
-    <row r="86">
+    <row r="86" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
       <c r="G86" s="16"/>
     </row>
-    <row r="87">
+    <row r="87" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
       <c r="G87" s="16"/>
     </row>
-    <row r="88">
+    <row r="88" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
       <c r="G88" s="16"/>
     </row>
-    <row r="89">
+    <row r="89" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
       <c r="G89" s="16"/>
     </row>
-    <row r="90">
+    <row r="90" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
       <c r="G90" s="16"/>
     </row>
-    <row r="91">
+    <row r="91" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="G91" s="16"/>
     </row>
-    <row r="92">
+    <row r="92" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="G92" s="16"/>
     </row>
-    <row r="93">
+    <row r="93" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="G93" s="16"/>
     </row>
-    <row r="94">
+    <row r="94" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="G94" s="16"/>
     </row>
-    <row r="95">
+    <row r="95" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
       <c r="G95" s="16"/>
     </row>
-    <row r="96">
+    <row r="96" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
       <c r="G96" s="16"/>
     </row>
-    <row r="97">
+    <row r="97" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
       <c r="G97" s="16"/>
     </row>
-    <row r="98">
+    <row r="98" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
       <c r="G98" s="16"/>
     </row>
-    <row r="99">
+    <row r="99" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="G99" s="16"/>
     </row>
-    <row r="100">
+    <row r="100" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="G100" s="16"/>
     </row>
-    <row r="101">
+    <row r="101" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="G101" s="16"/>
     </row>
-    <row r="102">
+    <row r="102" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="G102" s="16"/>
     </row>
-    <row r="103">
+    <row r="103" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="G103" s="16"/>
     </row>
-    <row r="104">
+    <row r="104" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
       <c r="G104" s="16"/>
     </row>
-    <row r="105">
+    <row r="105" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
       <c r="G105" s="16"/>
     </row>
-    <row r="106">
+    <row r="106" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
       <c r="G106" s="16"/>
     </row>
-    <row r="107">
+    <row r="107" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
       <c r="G107" s="16"/>
     </row>
-    <row r="108">
+    <row r="108" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
       <c r="G108" s="16"/>
     </row>
-    <row r="109">
+    <row r="109" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
       <c r="G109" s="16"/>
     </row>
-    <row r="110">
+    <row r="110" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
       <c r="G110" s="16"/>
     </row>
-    <row r="111">
+    <row r="111" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
       <c r="G111" s="16"/>
     </row>
-    <row r="112">
+    <row r="112" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="G112" s="16"/>
     </row>
-    <row r="113">
+    <row r="113" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="G113" s="16"/>
     </row>
-    <row r="114">
+    <row r="114" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="G114" s="16"/>
     </row>
-    <row r="115">
+    <row r="115" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="G115" s="16"/>
     </row>
-    <row r="116">
+    <row r="116" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="G116" s="16"/>
     </row>
-    <row r="117">
+    <row r="117" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="G117" s="16"/>
     </row>
-    <row r="118">
+    <row r="118" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
       <c r="G118" s="16"/>
     </row>
-    <row r="119">
+    <row r="119" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="G119" s="16"/>
     </row>
-    <row r="120">
+    <row r="120" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
       <c r="G120" s="16"/>
     </row>
-    <row r="121">
+    <row r="121" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C121" s="16"/>
       <c r="D121" s="16"/>
       <c r="G121" s="16"/>
     </row>
-    <row r="122">
+    <row r="122" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
       <c r="G122" s="16"/>
     </row>
-    <row r="123">
+    <row r="123" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
       <c r="G123" s="16"/>
     </row>
-    <row r="124">
+    <row r="124" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
       <c r="G124" s="16"/>
     </row>
-    <row r="125">
+    <row r="125" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C125" s="16"/>
       <c r="D125" s="16"/>
       <c r="G125" s="16"/>
     </row>
-    <row r="126">
+    <row r="126" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C126" s="16"/>
       <c r="D126" s="16"/>
       <c r="G126" s="16"/>
     </row>
-    <row r="127">
+    <row r="127" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C127" s="16"/>
       <c r="D127" s="16"/>
       <c r="G127" s="16"/>
     </row>
-    <row r="128">
+    <row r="128" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C128" s="16"/>
       <c r="D128" s="16"/>
       <c r="G128" s="16"/>
     </row>
-    <row r="129">
+    <row r="129" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C129" s="16"/>
       <c r="D129" s="16"/>
       <c r="G129" s="16"/>
     </row>
-    <row r="130">
+    <row r="130" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C130" s="16"/>
       <c r="D130" s="16"/>
       <c r="G130" s="16"/>
     </row>
-    <row r="131">
+    <row r="131" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C131" s="16"/>
       <c r="D131" s="16"/>
       <c r="G131" s="16"/>
     </row>
-    <row r="132">
+    <row r="132" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C132" s="16"/>
       <c r="D132" s="16"/>
       <c r="G132" s="16"/>
     </row>
-    <row r="133">
+    <row r="133" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C133" s="16"/>
       <c r="D133" s="16"/>
       <c r="G133" s="16"/>
     </row>
-    <row r="134">
+    <row r="134" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C134" s="16"/>
       <c r="D134" s="16"/>
       <c r="G134" s="16"/>
     </row>
-    <row r="135">
+    <row r="135" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C135" s="16"/>
       <c r="D135" s="16"/>
       <c r="G135" s="16"/>
     </row>
-    <row r="136">
+    <row r="136" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C136" s="16"/>
       <c r="D136" s="16"/>
       <c r="G136" s="16"/>
     </row>
-    <row r="137">
+    <row r="137" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C137" s="16"/>
       <c r="D137" s="16"/>
       <c r="G137" s="16"/>
     </row>
-    <row r="138">
+    <row r="138" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C138" s="16"/>
       <c r="D138" s="16"/>
       <c r="G138" s="16"/>
     </row>
-    <row r="139">
+    <row r="139" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
       <c r="G139" s="16"/>
     </row>
-    <row r="140">
+    <row r="140" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
       <c r="G140" s="16"/>
     </row>
-    <row r="141">
+    <row r="141" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
       <c r="G141" s="16"/>
     </row>
-    <row r="142">
+    <row r="142" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
       <c r="G142" s="16"/>
     </row>
-    <row r="143">
+    <row r="143" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C143" s="16"/>
       <c r="D143" s="16"/>
       <c r="G143" s="16"/>
     </row>
-    <row r="144">
+    <row r="144" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C144" s="16"/>
       <c r="D144" s="16"/>
       <c r="G144" s="16"/>
     </row>
-    <row r="145">
+    <row r="145" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C145" s="16"/>
       <c r="D145" s="16"/>
       <c r="G145" s="16"/>
     </row>
-    <row r="146">
+    <row r="146" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C146" s="16"/>
       <c r="D146" s="16"/>
       <c r="G146" s="16"/>
     </row>
-    <row r="147">
+    <row r="147" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C147" s="16"/>
       <c r="D147" s="16"/>
       <c r="G147" s="16"/>
     </row>
-    <row r="148">
+    <row r="148" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C148" s="16"/>
       <c r="D148" s="16"/>
       <c r="G148" s="16"/>
     </row>
-    <row r="149">
+    <row r="149" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C149" s="16"/>
       <c r="D149" s="16"/>
       <c r="G149" s="16"/>
     </row>
-    <row r="150">
+    <row r="150" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C150" s="16"/>
       <c r="D150" s="16"/>
       <c r="G150" s="16"/>
     </row>
-    <row r="151">
+    <row r="151" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C151" s="16"/>
       <c r="D151" s="16"/>
       <c r="G151" s="16"/>
     </row>
-    <row r="152">
+    <row r="152" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C152" s="16"/>
       <c r="D152" s="16"/>
       <c r="G152" s="16"/>
     </row>
-    <row r="153">
+    <row r="153" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C153" s="16"/>
       <c r="D153" s="16"/>
       <c r="G153" s="16"/>
     </row>
-    <row r="154">
+    <row r="154" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C154" s="16"/>
       <c r="D154" s="16"/>
       <c r="G154" s="16"/>
     </row>
-    <row r="155">
+    <row r="155" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C155" s="16"/>
       <c r="D155" s="16"/>
       <c r="G155" s="16"/>
     </row>
-    <row r="156">
+    <row r="156" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C156" s="16"/>
       <c r="D156" s="16"/>
       <c r="G156" s="16"/>
     </row>
-    <row r="157">
+    <row r="157" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C157" s="16"/>
       <c r="D157" s="16"/>
       <c r="G157" s="16"/>
     </row>
-    <row r="158">
+    <row r="158" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C158" s="16"/>
       <c r="D158" s="16"/>
       <c r="G158" s="16"/>
     </row>
-    <row r="159">
+    <row r="159" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C159" s="16"/>
       <c r="D159" s="16"/>
       <c r="G159" s="16"/>
     </row>
-    <row r="160">
+    <row r="160" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C160" s="16"/>
       <c r="D160" s="16"/>
       <c r="G160" s="16"/>
     </row>
-    <row r="161">
+    <row r="161" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C161" s="16"/>
       <c r="D161" s="16"/>
       <c r="G161" s="16"/>
     </row>
-    <row r="162">
+    <row r="162" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
       <c r="G162" s="16"/>
     </row>
-    <row r="163">
+    <row r="163" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
       <c r="G163" s="16"/>
     </row>
-    <row r="164">
+    <row r="164" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C164" s="16"/>
       <c r="D164" s="16"/>
       <c r="G164" s="16"/>
     </row>
-    <row r="165">
+    <row r="165" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
       <c r="G165" s="16"/>
     </row>
-    <row r="166">
+    <row r="166" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C166" s="16"/>
       <c r="D166" s="16"/>
       <c r="G166" s="16"/>
     </row>
-    <row r="167">
+    <row r="167" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C167" s="16"/>
       <c r="D167" s="16"/>
       <c r="G167" s="16"/>
     </row>
-    <row r="168">
+    <row r="168" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C168" s="16"/>
       <c r="D168" s="16"/>
       <c r="G168" s="16"/>
     </row>
-    <row r="169">
+    <row r="169" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C169" s="16"/>
       <c r="D169" s="16"/>
       <c r="G169" s="16"/>
     </row>
-    <row r="170">
+    <row r="170" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
       <c r="G170" s="16"/>
     </row>
-    <row r="171">
+    <row r="171" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
       <c r="G171" s="16"/>
     </row>
-    <row r="172">
+    <row r="172" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C172" s="16"/>
       <c r="D172" s="16"/>
       <c r="G172" s="16"/>
     </row>
-    <row r="173">
+    <row r="173" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C173" s="16"/>
       <c r="D173" s="16"/>
       <c r="G173" s="16"/>
     </row>
-    <row r="174">
+    <row r="174" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C174" s="16"/>
       <c r="D174" s="16"/>
       <c r="G174" s="16"/>
     </row>
-    <row r="175">
+    <row r="175" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C175" s="16"/>
       <c r="D175" s="16"/>
       <c r="G175" s="16"/>
     </row>
-    <row r="176">
+    <row r="176" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C176" s="16"/>
       <c r="D176" s="16"/>
       <c r="G176" s="16"/>
     </row>
-    <row r="177">
+    <row r="177" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C177" s="16"/>
       <c r="D177" s="16"/>
       <c r="G177" s="16"/>
     </row>
-    <row r="178">
+    <row r="178" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C178" s="16"/>
       <c r="D178" s="16"/>
       <c r="G178" s="16"/>
     </row>
-    <row r="179">
+    <row r="179" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C179" s="16"/>
       <c r="D179" s="16"/>
       <c r="G179" s="16"/>
     </row>
-    <row r="180">
+    <row r="180" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C180" s="16"/>
       <c r="D180" s="16"/>
       <c r="G180" s="16"/>
     </row>
-    <row r="181">
+    <row r="181" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C181" s="16"/>
       <c r="D181" s="16"/>
       <c r="G181" s="16"/>
     </row>
-    <row r="182">
+    <row r="182" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C182" s="16"/>
       <c r="D182" s="16"/>
       <c r="G182" s="16"/>
     </row>
-    <row r="183">
+    <row r="183" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C183" s="16"/>
       <c r="D183" s="16"/>
       <c r="G183" s="16"/>
     </row>
-    <row r="184">
+    <row r="184" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C184" s="16"/>
       <c r="D184" s="16"/>
       <c r="G184" s="16"/>
     </row>
-    <row r="185">
+    <row r="185" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
       <c r="G185" s="16"/>
     </row>
-    <row r="186">
+    <row r="186" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C186" s="16"/>
       <c r="D186" s="16"/>
       <c r="G186" s="16"/>
     </row>
-    <row r="187">
+    <row r="187" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C187" s="16"/>
       <c r="D187" s="16"/>
       <c r="G187" s="16"/>
     </row>
-    <row r="188">
+    <row r="188" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C188" s="16"/>
       <c r="D188" s="16"/>
       <c r="G188" s="16"/>
     </row>
-    <row r="189">
+    <row r="189" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C189" s="16"/>
       <c r="D189" s="16"/>
       <c r="G189" s="16"/>
     </row>
-    <row r="190">
+    <row r="190" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C190" s="16"/>
       <c r="D190" s="16"/>
       <c r="G190" s="16"/>
     </row>
-    <row r="191">
+    <row r="191" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C191" s="16"/>
       <c r="D191" s="16"/>
       <c r="G191" s="16"/>
     </row>
-    <row r="192">
+    <row r="192" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
       <c r="G192" s="16"/>
     </row>
-    <row r="193">
+    <row r="193" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C193" s="16"/>
       <c r="D193" s="16"/>
       <c r="G193" s="16"/>
     </row>
-    <row r="194">
+    <row r="194" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C194" s="16"/>
       <c r="D194" s="16"/>
       <c r="G194" s="16"/>
     </row>
-    <row r="195">
+    <row r="195" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C195" s="16"/>
       <c r="D195" s="16"/>
       <c r="G195" s="16"/>
     </row>
-    <row r="196">
+    <row r="196" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C196" s="16"/>
       <c r="D196" s="16"/>
       <c r="G196" s="16"/>
     </row>
-    <row r="197">
+    <row r="197" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C197" s="16"/>
       <c r="D197" s="16"/>
       <c r="G197" s="16"/>
     </row>
-    <row r="198">
+    <row r="198" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C198" s="16"/>
       <c r="D198" s="16"/>
       <c r="G198" s="16"/>
     </row>
-    <row r="199">
+    <row r="199" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C199" s="16"/>
       <c r="D199" s="16"/>
       <c r="G199" s="16"/>
     </row>
-    <row r="200">
+    <row r="200" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
       <c r="G200" s="16"/>
     </row>
-    <row r="201">
+    <row r="201" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C201" s="16"/>
       <c r="D201" s="16"/>
       <c r="G201" s="16"/>
     </row>
-    <row r="202">
+    <row r="202" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C202" s="16"/>
       <c r="D202" s="16"/>
       <c r="G202" s="16"/>
     </row>
-    <row r="203">
+    <row r="203" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C203" s="16"/>
       <c r="D203" s="16"/>
       <c r="G203" s="16"/>
     </row>
-    <row r="204">
+    <row r="204" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C204" s="16"/>
       <c r="D204" s="16"/>
       <c r="G204" s="16"/>
     </row>
-    <row r="205">
+    <row r="205" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C205" s="16"/>
       <c r="D205" s="16"/>
       <c r="G205" s="16"/>
     </row>
-    <row r="206">
+    <row r="206" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C206" s="16"/>
       <c r="D206" s="16"/>
       <c r="G206" s="16"/>
     </row>
-    <row r="207">
+    <row r="207" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C207" s="16"/>
       <c r="D207" s="16"/>
       <c r="G207" s="16"/>
     </row>
-    <row r="208">
+    <row r="208" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C208" s="16"/>
       <c r="D208" s="16"/>
       <c r="G208" s="16"/>
     </row>
-    <row r="209">
+    <row r="209" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C209" s="16"/>
       <c r="D209" s="16"/>
       <c r="G209" s="16"/>
     </row>
-    <row r="210">
+    <row r="210" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C210" s="16"/>
       <c r="D210" s="16"/>
       <c r="G210" s="16"/>
     </row>
-    <row r="211">
+    <row r="211" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C211" s="16"/>
       <c r="D211" s="16"/>
       <c r="G211" s="16"/>
     </row>
-    <row r="212">
+    <row r="212" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C212" s="16"/>
       <c r="D212" s="16"/>
       <c r="G212" s="16"/>
     </row>
-    <row r="213">
+    <row r="213" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C213" s="16"/>
       <c r="D213" s="16"/>
       <c r="G213" s="16"/>
     </row>
-    <row r="214">
+    <row r="214" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C214" s="16"/>
       <c r="D214" s="16"/>
       <c r="G214" s="16"/>
     </row>
-    <row r="215">
+    <row r="215" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C215" s="16"/>
       <c r="D215" s="16"/>
       <c r="G215" s="16"/>
     </row>
-    <row r="216">
+    <row r="216" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C216" s="16"/>
       <c r="D216" s="16"/>
       <c r="G216" s="16"/>
     </row>
-    <row r="217">
+    <row r="217" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C217" s="16"/>
       <c r="D217" s="16"/>
       <c r="G217" s="16"/>
     </row>
-    <row r="218">
+    <row r="218" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C218" s="16"/>
       <c r="D218" s="16"/>
       <c r="G218" s="16"/>
     </row>
-    <row r="219">
+    <row r="219" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C219" s="16"/>
       <c r="D219" s="16"/>
       <c r="G219" s="16"/>
     </row>
-    <row r="220">
+    <row r="220" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C220" s="16"/>
       <c r="D220" s="16"/>
       <c r="G220" s="16"/>
     </row>
-    <row r="221">
+    <row r="221" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C221" s="16"/>
       <c r="D221" s="16"/>
       <c r="G221" s="16"/>
     </row>
-    <row r="222">
+    <row r="222" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C222" s="16"/>
       <c r="D222" s="16"/>
       <c r="G222" s="16"/>
     </row>
-    <row r="223">
+    <row r="223" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C223" s="16"/>
       <c r="D223" s="16"/>
       <c r="G223" s="16"/>
     </row>
-    <row r="224">
+    <row r="224" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C224" s="16"/>
       <c r="D224" s="16"/>
       <c r="G224" s="16"/>
     </row>
-    <row r="225">
+    <row r="225" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C225" s="16"/>
       <c r="D225" s="16"/>
       <c r="G225" s="16"/>
     </row>
-    <row r="226">
+    <row r="226" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C226" s="16"/>
       <c r="D226" s="16"/>
       <c r="G226" s="16"/>
     </row>
-    <row r="227">
+    <row r="227" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C227" s="16"/>
       <c r="D227" s="16"/>
       <c r="G227" s="16"/>
     </row>
-    <row r="228">
+    <row r="228" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C228" s="16"/>
       <c r="D228" s="16"/>
       <c r="G228" s="16"/>
     </row>
-    <row r="229">
+    <row r="229" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C229" s="16"/>
       <c r="D229" s="16"/>
       <c r="G229" s="16"/>
     </row>
-    <row r="230">
+    <row r="230" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C230" s="16"/>
       <c r="D230" s="16"/>
       <c r="G230" s="16"/>
     </row>
-    <row r="231">
+    <row r="231" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C231" s="16"/>
       <c r="D231" s="16"/>
       <c r="G231" s="16"/>
     </row>
-    <row r="232">
+    <row r="232" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C232" s="16"/>
       <c r="D232" s="16"/>
       <c r="G232" s="16"/>
     </row>
-    <row r="233">
+    <row r="233" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C233" s="16"/>
       <c r="D233" s="16"/>
       <c r="G233" s="16"/>
     </row>
-    <row r="234">
+    <row r="234" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C234" s="16"/>
       <c r="D234" s="16"/>
       <c r="G234" s="16"/>
     </row>
-    <row r="235">
+    <row r="235" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C235" s="16"/>
       <c r="D235" s="16"/>
       <c r="G235" s="16"/>
     </row>
-    <row r="236">
+    <row r="236" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C236" s="16"/>
       <c r="D236" s="16"/>
       <c r="G236" s="16"/>
     </row>
-    <row r="237">
+    <row r="237" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C237" s="16"/>
       <c r="D237" s="16"/>
       <c r="G237" s="16"/>
     </row>
-    <row r="238">
+    <row r="238" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C238" s="16"/>
       <c r="D238" s="16"/>
       <c r="G238" s="16"/>
     </row>
-    <row r="239">
+    <row r="239" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C239" s="16"/>
       <c r="D239" s="16"/>
       <c r="G239" s="16"/>
     </row>
-    <row r="240">
+    <row r="240" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C240" s="16"/>
       <c r="D240" s="16"/>
       <c r="G240" s="16"/>
     </row>
-    <row r="241">
+    <row r="241" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C241" s="16"/>
       <c r="D241" s="16"/>
       <c r="G241" s="16"/>
     </row>
-    <row r="242">
+    <row r="242" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C242" s="16"/>
       <c r="D242" s="16"/>
       <c r="G242" s="16"/>
     </row>
-    <row r="243">
+    <row r="243" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C243" s="16"/>
       <c r="D243" s="16"/>
       <c r="G243" s="16"/>
     </row>
-    <row r="244">
+    <row r="244" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C244" s="16"/>
       <c r="D244" s="16"/>
       <c r="G244" s="16"/>
     </row>
-    <row r="245">
+    <row r="245" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C245" s="16"/>
       <c r="D245" s="16"/>
       <c r="G245" s="16"/>
     </row>
-    <row r="246">
+    <row r="246" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C246" s="16"/>
       <c r="D246" s="16"/>
       <c r="G246" s="16"/>
     </row>
-    <row r="247">
+    <row r="247" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C247" s="16"/>
       <c r="D247" s="16"/>
       <c r="G247" s="16"/>
     </row>
-    <row r="248">
+    <row r="248" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C248" s="16"/>
       <c r="D248" s="16"/>
       <c r="G248" s="16"/>
     </row>
-    <row r="249">
+    <row r="249" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C249" s="16"/>
       <c r="D249" s="16"/>
       <c r="G249" s="16"/>
     </row>
-    <row r="250">
+    <row r="250" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C250" s="16"/>
       <c r="D250" s="16"/>
       <c r="G250" s="16"/>
     </row>
-    <row r="251">
+    <row r="251" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C251" s="16"/>
       <c r="D251" s="16"/>
       <c r="G251" s="16"/>
     </row>
-    <row r="252">
+    <row r="252" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C252" s="16"/>
       <c r="D252" s="16"/>
       <c r="G252" s="16"/>
     </row>
-    <row r="253">
+    <row r="253" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C253" s="16"/>
       <c r="D253" s="16"/>
       <c r="G253" s="16"/>
     </row>
-    <row r="254">
+    <row r="254" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C254" s="16"/>
       <c r="D254" s="16"/>
       <c r="G254" s="16"/>
     </row>
-    <row r="255">
+    <row r="255" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C255" s="16"/>
       <c r="D255" s="16"/>
       <c r="G255" s="16"/>
     </row>
-    <row r="256">
+    <row r="256" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C256" s="16"/>
       <c r="D256" s="16"/>
       <c r="G256" s="16"/>
     </row>
-    <row r="257">
+    <row r="257" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C257" s="16"/>
       <c r="D257" s="16"/>
       <c r="G257" s="16"/>
     </row>
-    <row r="258">
+    <row r="258" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C258" s="16"/>
       <c r="D258" s="16"/>
       <c r="G258" s="16"/>
     </row>
-    <row r="259">
+    <row r="259" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C259" s="16"/>
       <c r="D259" s="16"/>
       <c r="G259" s="16"/>
     </row>
-    <row r="260">
+    <row r="260" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C260" s="16"/>
       <c r="D260" s="16"/>
       <c r="G260" s="16"/>
     </row>
-    <row r="261">
+    <row r="261" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C261" s="16"/>
       <c r="D261" s="16"/>
       <c r="G261" s="16"/>
     </row>
-    <row r="262">
+    <row r="262" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C262" s="16"/>
       <c r="D262" s="16"/>
       <c r="G262" s="16"/>
     </row>
-    <row r="263">
+    <row r="263" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C263" s="16"/>
       <c r="D263" s="16"/>
       <c r="G263" s="16"/>
     </row>
-    <row r="264">
+    <row r="264" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C264" s="16"/>
       <c r="D264" s="16"/>
       <c r="G264" s="16"/>
     </row>
-    <row r="265">
+    <row r="265" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C265" s="16"/>
       <c r="D265" s="16"/>
       <c r="G265" s="16"/>
     </row>
-    <row r="266">
+    <row r="266" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C266" s="16"/>
       <c r="D266" s="16"/>
       <c r="G266" s="16"/>
     </row>
-    <row r="267">
+    <row r="267" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C267" s="16"/>
       <c r="D267" s="16"/>
       <c r="G267" s="16"/>
     </row>
-    <row r="268">
+    <row r="268" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C268" s="16"/>
       <c r="D268" s="16"/>
       <c r="G268" s="16"/>
     </row>
-    <row r="269">
+    <row r="269" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C269" s="16"/>
       <c r="D269" s="16"/>
       <c r="G269" s="16"/>
     </row>
-    <row r="270">
+    <row r="270" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C270" s="16"/>
       <c r="D270" s="16"/>
       <c r="G270" s="16"/>
     </row>
-    <row r="271">
+    <row r="271" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C271" s="16"/>
       <c r="D271" s="16"/>
       <c r="G271" s="16"/>
     </row>
-    <row r="272">
+    <row r="272" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C272" s="16"/>
       <c r="D272" s="16"/>
       <c r="G272" s="16"/>
     </row>
-    <row r="273">
+    <row r="273" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C273" s="16"/>
       <c r="D273" s="16"/>
       <c r="G273" s="16"/>
     </row>
-    <row r="274">
+    <row r="274" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C274" s="16"/>
       <c r="D274" s="16"/>
       <c r="G274" s="16"/>
     </row>
-    <row r="275">
+    <row r="275" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C275" s="16"/>
       <c r="D275" s="16"/>
       <c r="G275" s="16"/>
     </row>
-    <row r="276">
+    <row r="276" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C276" s="16"/>
       <c r="D276" s="16"/>
       <c r="G276" s="16"/>
     </row>
-    <row r="277">
+    <row r="277" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C277" s="16"/>
       <c r="D277" s="16"/>
       <c r="G277" s="16"/>
     </row>
-    <row r="278">
+    <row r="278" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C278" s="16"/>
       <c r="D278" s="16"/>
       <c r="G278" s="16"/>
     </row>
-    <row r="279">
+    <row r="279" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C279" s="16"/>
       <c r="D279" s="16"/>
       <c r="G279" s="16"/>
     </row>
-    <row r="280">
+    <row r="280" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C280" s="16"/>
       <c r="D280" s="16"/>
       <c r="G280" s="16"/>
     </row>
-    <row r="281">
+    <row r="281" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C281" s="16"/>
       <c r="D281" s="16"/>
       <c r="G281" s="16"/>
     </row>
-    <row r="282">
+    <row r="282" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C282" s="16"/>
       <c r="D282" s="16"/>
       <c r="G282" s="16"/>
     </row>
-    <row r="283">
+    <row r="283" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C283" s="16"/>
       <c r="D283" s="16"/>
       <c r="G283" s="16"/>
     </row>
-    <row r="284">
+    <row r="284" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C284" s="16"/>
       <c r="D284" s="16"/>
       <c r="G284" s="16"/>
     </row>
-    <row r="285">
+    <row r="285" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C285" s="16"/>
       <c r="D285" s="16"/>
       <c r="G285" s="16"/>
     </row>
-    <row r="286">
+    <row r="286" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C286" s="16"/>
       <c r="D286" s="16"/>
       <c r="G286" s="16"/>
     </row>
-    <row r="287">
+    <row r="287" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C287" s="16"/>
       <c r="D287" s="16"/>
       <c r="G287" s="16"/>
     </row>
-    <row r="288">
+    <row r="288" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C288" s="16"/>
       <c r="D288" s="16"/>
       <c r="G288" s="16"/>
     </row>
-    <row r="289">
+    <row r="289" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C289" s="16"/>
       <c r="D289" s="16"/>
       <c r="G289" s="16"/>
     </row>
-    <row r="290">
+    <row r="290" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C290" s="16"/>
       <c r="D290" s="16"/>
       <c r="G290" s="16"/>
     </row>
-    <row r="291">
+    <row r="291" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C291" s="16"/>
       <c r="D291" s="16"/>
       <c r="G291" s="16"/>
     </row>
-    <row r="292">
+    <row r="292" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C292" s="16"/>
       <c r="D292" s="16"/>
       <c r="G292" s="16"/>
     </row>
-    <row r="293">
+    <row r="293" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C293" s="16"/>
       <c r="D293" s="16"/>
       <c r="G293" s="16"/>
     </row>
-    <row r="294">
+    <row r="294" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C294" s="16"/>
       <c r="D294" s="16"/>
       <c r="G294" s="16"/>
     </row>
-    <row r="295">
+    <row r="295" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C295" s="16"/>
       <c r="D295" s="16"/>
       <c r="G295" s="16"/>
     </row>
-    <row r="296">
+    <row r="296" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C296" s="16"/>
       <c r="D296" s="16"/>
       <c r="G296" s="16"/>
     </row>
-    <row r="297">
+    <row r="297" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C297" s="16"/>
       <c r="D297" s="16"/>
       <c r="G297" s="16"/>
     </row>
-    <row r="298">
+    <row r="298" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C298" s="16"/>
       <c r="D298" s="16"/>
       <c r="G298" s="16"/>
     </row>
-    <row r="299">
+    <row r="299" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C299" s="16"/>
       <c r="D299" s="16"/>
       <c r="G299" s="16"/>
     </row>
-    <row r="300">
+    <row r="300" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C300" s="16"/>
       <c r="D300" s="16"/>
       <c r="G300" s="16"/>
     </row>
-    <row r="301">
+    <row r="301" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C301" s="16"/>
       <c r="D301" s="16"/>
       <c r="G301" s="16"/>
     </row>
-    <row r="302">
+    <row r="302" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C302" s="16"/>
       <c r="D302" s="16"/>
       <c r="G302" s="16"/>
     </row>
-    <row r="303">
+    <row r="303" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C303" s="16"/>
       <c r="D303" s="16"/>
       <c r="G303" s="16"/>
     </row>
-    <row r="304">
+    <row r="304" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C304" s="16"/>
       <c r="D304" s="16"/>
       <c r="G304" s="16"/>
     </row>
-    <row r="305">
+    <row r="305" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C305" s="16"/>
       <c r="D305" s="16"/>
       <c r="G305" s="16"/>
     </row>
-    <row r="306">
+    <row r="306" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C306" s="16"/>
       <c r="D306" s="16"/>
       <c r="G306" s="16"/>
     </row>
-    <row r="307">
+    <row r="307" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C307" s="16"/>
       <c r="D307" s="16"/>
       <c r="G307" s="16"/>
     </row>
-    <row r="308">
+    <row r="308" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C308" s="16"/>
       <c r="D308" s="16"/>
       <c r="G308" s="16"/>
     </row>
-    <row r="309">
+    <row r="309" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C309" s="16"/>
       <c r="D309" s="16"/>
       <c r="G309" s="16"/>
     </row>
-    <row r="310">
+    <row r="310" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C310" s="16"/>
       <c r="D310" s="16"/>
       <c r="G310" s="16"/>
     </row>
-    <row r="311">
+    <row r="311" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C311" s="16"/>
       <c r="D311" s="16"/>
       <c r="G311" s="16"/>
     </row>
-    <row r="312">
+    <row r="312" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C312" s="16"/>
       <c r="D312" s="16"/>
       <c r="G312" s="16"/>
     </row>
-    <row r="313">
+    <row r="313" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C313" s="16"/>
       <c r="D313" s="16"/>
       <c r="G313" s="16"/>
     </row>
-    <row r="314">
+    <row r="314" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C314" s="16"/>
       <c r="D314" s="16"/>
       <c r="G314" s="16"/>
     </row>
-    <row r="315">
+    <row r="315" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C315" s="16"/>
       <c r="D315" s="16"/>
       <c r="G315" s="16"/>
     </row>
-    <row r="316">
+    <row r="316" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C316" s="16"/>
       <c r="D316" s="16"/>
       <c r="G316" s="16"/>
     </row>
-    <row r="317">
+    <row r="317" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C317" s="16"/>
       <c r="D317" s="16"/>
       <c r="G317" s="16"/>
     </row>
-    <row r="318">
+    <row r="318" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C318" s="16"/>
       <c r="D318" s="16"/>
       <c r="G318" s="16"/>
     </row>
-    <row r="319">
+    <row r="319" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C319" s="16"/>
       <c r="D319" s="16"/>
       <c r="G319" s="16"/>
     </row>
-    <row r="320">
+    <row r="320" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C320" s="16"/>
       <c r="D320" s="16"/>
       <c r="G320" s="16"/>
     </row>
-    <row r="321">
+    <row r="321" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C321" s="16"/>
       <c r="D321" s="16"/>
       <c r="G321" s="16"/>
     </row>
-    <row r="322">
+    <row r="322" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C322" s="16"/>
       <c r="D322" s="16"/>
       <c r="G322" s="16"/>
     </row>
-    <row r="323">
+    <row r="323" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C323" s="16"/>
       <c r="D323" s="16"/>
       <c r="G323" s="16"/>
     </row>
-    <row r="324">
+    <row r="324" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C324" s="16"/>
       <c r="D324" s="16"/>
       <c r="G324" s="16"/>
     </row>
-    <row r="325">
+    <row r="325" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C325" s="16"/>
       <c r="D325" s="16"/>
       <c r="G325" s="16"/>
     </row>
-    <row r="326">
+    <row r="326" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C326" s="16"/>
       <c r="D326" s="16"/>
       <c r="G326" s="16"/>
     </row>
-    <row r="327">
+    <row r="327" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C327" s="16"/>
       <c r="D327" s="16"/>
       <c r="G327" s="16"/>
     </row>
-    <row r="328">
+    <row r="328" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C328" s="16"/>
       <c r="D328" s="16"/>
       <c r="G328" s="16"/>
     </row>
-    <row r="329">
+    <row r="329" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C329" s="16"/>
       <c r="D329" s="16"/>
       <c r="G329" s="16"/>
     </row>
-    <row r="330">
+    <row r="330" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C330" s="16"/>
       <c r="D330" s="16"/>
       <c r="G330" s="16"/>
     </row>
-    <row r="331">
+    <row r="331" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C331" s="16"/>
       <c r="D331" s="16"/>
       <c r="G331" s="16"/>
     </row>
-    <row r="332">
+    <row r="332" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C332" s="16"/>
       <c r="D332" s="16"/>
       <c r="G332" s="16"/>
     </row>
-    <row r="333">
+    <row r="333" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C333" s="16"/>
       <c r="D333" s="16"/>
       <c r="G333" s="16"/>
     </row>
-    <row r="334">
+    <row r="334" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C334" s="16"/>
       <c r="D334" s="16"/>
       <c r="G334" s="16"/>
     </row>
-    <row r="335">
+    <row r="335" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C335" s="16"/>
       <c r="D335" s="16"/>
       <c r="G335" s="16"/>
     </row>
-    <row r="336">
+    <row r="336" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C336" s="16"/>
       <c r="D336" s="16"/>
       <c r="G336" s="16"/>
     </row>
-    <row r="337">
+    <row r="337" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C337" s="16"/>
       <c r="D337" s="16"/>
       <c r="G337" s="16"/>
     </row>
-    <row r="338">
+    <row r="338" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C338" s="16"/>
       <c r="D338" s="16"/>
       <c r="G338" s="16"/>
     </row>
-    <row r="339">
+    <row r="339" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C339" s="16"/>
       <c r="D339" s="16"/>
       <c r="G339" s="16"/>
     </row>
-    <row r="340">
+    <row r="340" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C340" s="16"/>
       <c r="D340" s="16"/>
       <c r="G340" s="16"/>
     </row>
-    <row r="341">
+    <row r="341" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C341" s="16"/>
       <c r="D341" s="16"/>
       <c r="G341" s="16"/>
     </row>
-    <row r="342">
+    <row r="342" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C342" s="16"/>
       <c r="D342" s="16"/>
       <c r="G342" s="16"/>
     </row>
-    <row r="343">
+    <row r="343" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C343" s="16"/>
       <c r="D343" s="16"/>
       <c r="G343" s="16"/>
     </row>
-    <row r="344">
+    <row r="344" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C344" s="16"/>
       <c r="D344" s="16"/>
       <c r="G344" s="16"/>
     </row>
-    <row r="345">
+    <row r="345" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C345" s="16"/>
       <c r="D345" s="16"/>
       <c r="G345" s="16"/>
     </row>
-    <row r="346">
+    <row r="346" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C346" s="16"/>
       <c r="D346" s="16"/>
       <c r="G346" s="16"/>
     </row>
-    <row r="347">
+    <row r="347" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C347" s="16"/>
       <c r="D347" s="16"/>
       <c r="G347" s="16"/>
     </row>
-    <row r="348">
+    <row r="348" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C348" s="16"/>
       <c r="D348" s="16"/>
       <c r="G348" s="16"/>
     </row>
-    <row r="349">
+    <row r="349" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C349" s="16"/>
       <c r="D349" s="16"/>
       <c r="G349" s="16"/>
     </row>
-    <row r="350">
+    <row r="350" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C350" s="16"/>
       <c r="D350" s="16"/>
       <c r="G350" s="16"/>
     </row>
-    <row r="351">
+    <row r="351" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C351" s="16"/>
       <c r="D351" s="16"/>
       <c r="G351" s="16"/>
     </row>
-    <row r="352">
+    <row r="352" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C352" s="16"/>
       <c r="D352" s="16"/>
       <c r="G352" s="16"/>
     </row>
-    <row r="353">
+    <row r="353" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C353" s="16"/>
       <c r="D353" s="16"/>
       <c r="G353" s="16"/>
     </row>
-    <row r="354">
+    <row r="354" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C354" s="16"/>
       <c r="D354" s="16"/>
       <c r="G354" s="16"/>
     </row>
-    <row r="355">
+    <row r="355" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C355" s="16"/>
       <c r="D355" s="16"/>
       <c r="G355" s="16"/>
     </row>
-    <row r="356">
+    <row r="356" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C356" s="16"/>
       <c r="D356" s="16"/>
       <c r="G356" s="16"/>
     </row>
-    <row r="357">
+    <row r="357" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C357" s="16"/>
       <c r="D357" s="16"/>
       <c r="G357" s="16"/>
     </row>
-    <row r="358">
+    <row r="358" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C358" s="16"/>
       <c r="D358" s="16"/>
       <c r="G358" s="16"/>
     </row>
-    <row r="359">
+    <row r="359" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C359" s="16"/>
       <c r="D359" s="16"/>
       <c r="G359" s="16"/>
     </row>
-    <row r="360">
+    <row r="360" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C360" s="16"/>
       <c r="D360" s="16"/>
       <c r="G360" s="16"/>
     </row>
-    <row r="361">
+    <row r="361" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C361" s="16"/>
       <c r="D361" s="16"/>
       <c r="G361" s="16"/>
     </row>
-    <row r="362">
+    <row r="362" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C362" s="16"/>
       <c r="D362" s="16"/>
       <c r="G362" s="16"/>
     </row>
-    <row r="363">
+    <row r="363" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C363" s="16"/>
       <c r="D363" s="16"/>
       <c r="G363" s="16"/>
     </row>
-    <row r="364">
+    <row r="364" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C364" s="16"/>
       <c r="D364" s="16"/>
       <c r="G364" s="16"/>
     </row>
-    <row r="365">
+    <row r="365" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C365" s="16"/>
       <c r="D365" s="16"/>
       <c r="G365" s="16"/>
     </row>
-    <row r="366">
+    <row r="366" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C366" s="16"/>
       <c r="D366" s="16"/>
       <c r="G366" s="16"/>
     </row>
-    <row r="367">
+    <row r="367" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C367" s="16"/>
       <c r="D367" s="16"/>
       <c r="G367" s="16"/>
     </row>
-    <row r="368">
+    <row r="368" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C368" s="16"/>
       <c r="D368" s="16"/>
       <c r="G368" s="16"/>
     </row>
-    <row r="369">
+    <row r="369" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C369" s="16"/>
       <c r="D369" s="16"/>
       <c r="G369" s="16"/>
     </row>
-    <row r="370">
+    <row r="370" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C370" s="16"/>
       <c r="D370" s="16"/>
       <c r="G370" s="16"/>
     </row>
-    <row r="371">
+    <row r="371" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C371" s="16"/>
       <c r="D371" s="16"/>
       <c r="G371" s="16"/>
     </row>
-    <row r="372">
+    <row r="372" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C372" s="16"/>
       <c r="D372" s="16"/>
       <c r="G372" s="16"/>
     </row>
-    <row r="373">
+    <row r="373" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C373" s="16"/>
       <c r="D373" s="16"/>
       <c r="G373" s="16"/>
     </row>
-    <row r="374">
+    <row r="374" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C374" s="16"/>
       <c r="D374" s="16"/>
       <c r="G374" s="16"/>
     </row>
-    <row r="375">
+    <row r="375" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C375" s="16"/>
       <c r="D375" s="16"/>
       <c r="G375" s="16"/>
     </row>
-    <row r="376">
+    <row r="376" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C376" s="16"/>
       <c r="D376" s="16"/>
       <c r="G376" s="16"/>
     </row>
-    <row r="377">
+    <row r="377" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C377" s="16"/>
       <c r="D377" s="16"/>
       <c r="G377" s="16"/>
     </row>
-    <row r="378">
+    <row r="378" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C378" s="16"/>
       <c r="D378" s="16"/>
       <c r="G378" s="16"/>
     </row>
-    <row r="379">
+    <row r="379" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C379" s="16"/>
       <c r="D379" s="16"/>
       <c r="G379" s="16"/>
     </row>
-    <row r="380">
+    <row r="380" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C380" s="16"/>
       <c r="D380" s="16"/>
       <c r="G380" s="16"/>
     </row>
-    <row r="381">
+    <row r="381" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C381" s="16"/>
       <c r="D381" s="16"/>
       <c r="G381" s="16"/>
     </row>
-    <row r="382">
+    <row r="382" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C382" s="16"/>
       <c r="D382" s="16"/>
       <c r="G382" s="16"/>
     </row>
-    <row r="383">
+    <row r="383" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C383" s="16"/>
       <c r="D383" s="16"/>
       <c r="G383" s="16"/>
     </row>
-    <row r="384">
+    <row r="384" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C384" s="16"/>
       <c r="D384" s="16"/>
       <c r="G384" s="16"/>
     </row>
-    <row r="385">
+    <row r="385" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C385" s="16"/>
       <c r="D385" s="16"/>
       <c r="G385" s="16"/>
     </row>
-    <row r="386">
+    <row r="386" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C386" s="16"/>
       <c r="D386" s="16"/>
       <c r="G386" s="16"/>
     </row>
-    <row r="387">
+    <row r="387" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C387" s="16"/>
       <c r="D387" s="16"/>
       <c r="G387" s="16"/>
     </row>
-    <row r="388">
+    <row r="388" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C388" s="16"/>
       <c r="D388" s="16"/>
       <c r="G388" s="16"/>
     </row>
-    <row r="389">
+    <row r="389" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C389" s="16"/>
       <c r="D389" s="16"/>
       <c r="G389" s="16"/>
     </row>
-    <row r="390">
+    <row r="390" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C390" s="16"/>
       <c r="D390" s="16"/>
       <c r="G390" s="16"/>
     </row>
-    <row r="391">
+    <row r="391" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C391" s="16"/>
       <c r="D391" s="16"/>
       <c r="G391" s="16"/>
     </row>
-    <row r="392">
+    <row r="392" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C392" s="16"/>
       <c r="D392" s="16"/>
       <c r="G392" s="16"/>
     </row>
-    <row r="393">
+    <row r="393" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C393" s="16"/>
       <c r="D393" s="16"/>
       <c r="G393" s="16"/>
     </row>
-    <row r="394">
+    <row r="394" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C394" s="16"/>
       <c r="D394" s="16"/>
       <c r="G394" s="16"/>
     </row>
-    <row r="395">
+    <row r="395" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C395" s="16"/>
       <c r="D395" s="16"/>
       <c r="G395" s="16"/>
     </row>
-    <row r="396">
+    <row r="396" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C396" s="16"/>
       <c r="D396" s="16"/>
       <c r="G396" s="16"/>
     </row>
-    <row r="397">
+    <row r="397" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C397" s="16"/>
       <c r="D397" s="16"/>
       <c r="G397" s="16"/>
     </row>
-    <row r="398">
+    <row r="398" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C398" s="16"/>
       <c r="D398" s="16"/>
       <c r="G398" s="16"/>
     </row>
-    <row r="399">
+    <row r="399" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C399" s="16"/>
       <c r="D399" s="16"/>
       <c r="G399" s="16"/>
     </row>
-    <row r="400">
+    <row r="400" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C400" s="16"/>
       <c r="D400" s="16"/>
       <c r="G400" s="16"/>
     </row>
-    <row r="401">
+    <row r="401" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C401" s="16"/>
       <c r="D401" s="16"/>
       <c r="G401" s="16"/>
     </row>
-    <row r="402">
+    <row r="402" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C402" s="16"/>
       <c r="D402" s="16"/>
       <c r="G402" s="16"/>
     </row>
-    <row r="403">
+    <row r="403" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C403" s="16"/>
       <c r="D403" s="16"/>
       <c r="G403" s="16"/>
     </row>
-    <row r="404">
+    <row r="404" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C404" s="16"/>
       <c r="D404" s="16"/>
       <c r="G404" s="16"/>
     </row>
-    <row r="405">
+    <row r="405" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C405" s="16"/>
       <c r="D405" s="16"/>
       <c r="G405" s="16"/>
     </row>
-    <row r="406">
+    <row r="406" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C406" s="16"/>
       <c r="D406" s="16"/>
       <c r="G406" s="16"/>
     </row>
-    <row r="407">
+    <row r="407" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C407" s="16"/>
       <c r="D407" s="16"/>
       <c r="G407" s="16"/>
     </row>
-    <row r="408">
+    <row r="408" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C408" s="16"/>
       <c r="D408" s="16"/>
       <c r="G408" s="16"/>
     </row>
-    <row r="409">
+    <row r="409" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C409" s="16"/>
       <c r="D409" s="16"/>
       <c r="G409" s="16"/>
     </row>
-    <row r="410">
+    <row r="410" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C410" s="16"/>
       <c r="D410" s="16"/>
       <c r="G410" s="16"/>
     </row>
-    <row r="411">
+    <row r="411" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C411" s="16"/>
       <c r="D411" s="16"/>
       <c r="G411" s="16"/>
     </row>
-    <row r="412">
+    <row r="412" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C412" s="16"/>
       <c r="D412" s="16"/>
       <c r="G412" s="16"/>
     </row>
-    <row r="413">
+    <row r="413" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C413" s="16"/>
       <c r="D413" s="16"/>
       <c r="G413" s="16"/>
     </row>
-    <row r="414">
+    <row r="414" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C414" s="16"/>
       <c r="D414" s="16"/>
       <c r="G414" s="16"/>
     </row>
-    <row r="415">
+    <row r="415" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C415" s="16"/>
       <c r="D415" s="16"/>
       <c r="G415" s="16"/>
     </row>
-    <row r="416">
+    <row r="416" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C416" s="16"/>
       <c r="D416" s="16"/>
       <c r="G416" s="16"/>
     </row>
-    <row r="417">
+    <row r="417" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C417" s="16"/>
       <c r="D417" s="16"/>
       <c r="G417" s="16"/>
     </row>
-    <row r="418">
+    <row r="418" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C418" s="16"/>
       <c r="D418" s="16"/>
       <c r="G418" s="16"/>
     </row>
-    <row r="419">
+    <row r="419" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C419" s="16"/>
       <c r="D419" s="16"/>
       <c r="G419" s="16"/>
     </row>
-    <row r="420">
+    <row r="420" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C420" s="16"/>
       <c r="D420" s="16"/>
       <c r="G420" s="16"/>
     </row>
-    <row r="421">
+    <row r="421" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C421" s="16"/>
       <c r="D421" s="16"/>
       <c r="G421" s="16"/>
     </row>
-    <row r="422">
+    <row r="422" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C422" s="16"/>
       <c r="D422" s="16"/>
       <c r="G422" s="16"/>
     </row>
-    <row r="423">
+    <row r="423" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C423" s="16"/>
       <c r="D423" s="16"/>
       <c r="G423" s="16"/>
     </row>
-    <row r="424">
+    <row r="424" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C424" s="16"/>
       <c r="D424" s="16"/>
       <c r="G424" s="16"/>
     </row>
-    <row r="425">
+    <row r="425" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C425" s="16"/>
       <c r="D425" s="16"/>
       <c r="G425" s="16"/>
     </row>
-    <row r="426">
+    <row r="426" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C426" s="16"/>
       <c r="D426" s="16"/>
       <c r="G426" s="16"/>
     </row>
-    <row r="427">
+    <row r="427" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C427" s="16"/>
       <c r="D427" s="16"/>
       <c r="G427" s="16"/>
     </row>
-    <row r="428">
+    <row r="428" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C428" s="16"/>
       <c r="D428" s="16"/>
       <c r="G428" s="16"/>
     </row>
-    <row r="429">
+    <row r="429" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C429" s="16"/>
       <c r="D429" s="16"/>
       <c r="G429" s="16"/>
     </row>
-    <row r="430">
+    <row r="430" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C430" s="16"/>
       <c r="D430" s="16"/>
       <c r="G430" s="16"/>
     </row>
-    <row r="431">
+    <row r="431" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C431" s="16"/>
       <c r="D431" s="16"/>
       <c r="G431" s="16"/>
     </row>
-    <row r="432">
+    <row r="432" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C432" s="16"/>
       <c r="D432" s="16"/>
       <c r="G432" s="16"/>
     </row>
-    <row r="433">
+    <row r="433" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C433" s="16"/>
       <c r="D433" s="16"/>
       <c r="G433" s="16"/>
     </row>
-    <row r="434">
+    <row r="434" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C434" s="16"/>
       <c r="D434" s="16"/>
       <c r="G434" s="16"/>
     </row>
-    <row r="435">
+    <row r="435" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C435" s="16"/>
       <c r="D435" s="16"/>
       <c r="G435" s="16"/>
     </row>
-    <row r="436">
+    <row r="436" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C436" s="16"/>
       <c r="D436" s="16"/>
       <c r="G436" s="16"/>
     </row>
-    <row r="437">
+    <row r="437" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C437" s="16"/>
       <c r="D437" s="16"/>
       <c r="G437" s="16"/>
     </row>
-    <row r="438">
+    <row r="438" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C438" s="16"/>
       <c r="D438" s="16"/>
       <c r="G438" s="16"/>
     </row>
-    <row r="439">
+    <row r="439" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C439" s="16"/>
       <c r="D439" s="16"/>
       <c r="G439" s="16"/>
     </row>
-    <row r="440">
+    <row r="440" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C440" s="16"/>
       <c r="D440" s="16"/>
       <c r="G440" s="16"/>
     </row>
-    <row r="441">
+    <row r="441" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C441" s="16"/>
       <c r="D441" s="16"/>
       <c r="G441" s="16"/>
     </row>
-    <row r="442">
+    <row r="442" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C442" s="16"/>
       <c r="D442" s="16"/>
       <c r="G442" s="16"/>
     </row>
-    <row r="443">
+    <row r="443" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C443" s="16"/>
       <c r="D443" s="16"/>
       <c r="G443" s="16"/>
     </row>
-    <row r="444">
+    <row r="444" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C444" s="16"/>
       <c r="D444" s="16"/>
       <c r="G444" s="16"/>
     </row>
-    <row r="445">
+    <row r="445" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C445" s="16"/>
       <c r="D445" s="16"/>
       <c r="G445" s="16"/>
     </row>
-    <row r="446">
+    <row r="446" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C446" s="16"/>
       <c r="D446" s="16"/>
       <c r="G446" s="16"/>
     </row>
-    <row r="447">
+    <row r="447" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C447" s="16"/>
       <c r="D447" s="16"/>
       <c r="G447" s="16"/>
     </row>
-    <row r="448">
+    <row r="448" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C448" s="16"/>
       <c r="D448" s="16"/>
       <c r="G448" s="16"/>
     </row>
-    <row r="449">
+    <row r="449" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C449" s="16"/>
       <c r="D449" s="16"/>
       <c r="G449" s="16"/>
     </row>
-    <row r="450">
+    <row r="450" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C450" s="16"/>
       <c r="D450" s="16"/>
       <c r="G450" s="16"/>
     </row>
-    <row r="451">
+    <row r="451" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C451" s="16"/>
       <c r="D451" s="16"/>
       <c r="G451" s="16"/>
     </row>
-    <row r="452">
+    <row r="452" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C452" s="16"/>
       <c r="D452" s="16"/>
       <c r="G452" s="16"/>
     </row>
-    <row r="453">
+    <row r="453" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C453" s="16"/>
       <c r="D453" s="16"/>
       <c r="G453" s="16"/>
     </row>
-    <row r="454">
+    <row r="454" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C454" s="16"/>
       <c r="D454" s="16"/>
       <c r="G454" s="16"/>
     </row>
-    <row r="455">
+    <row r="455" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C455" s="16"/>
       <c r="D455" s="16"/>
       <c r="G455" s="16"/>
     </row>
-    <row r="456">
+    <row r="456" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C456" s="16"/>
       <c r="D456" s="16"/>
       <c r="G456" s="16"/>
     </row>
-    <row r="457">
+    <row r="457" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C457" s="16"/>
       <c r="D457" s="16"/>
       <c r="G457" s="16"/>
     </row>
-    <row r="458">
+    <row r="458" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C458" s="16"/>
       <c r="D458" s="16"/>
       <c r="G458" s="16"/>
     </row>
-    <row r="459">
+    <row r="459" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C459" s="16"/>
       <c r="D459" s="16"/>
       <c r="G459" s="16"/>
     </row>
-    <row r="460">
+    <row r="460" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C460" s="16"/>
       <c r="D460" s="16"/>
       <c r="G460" s="16"/>
     </row>
-    <row r="461">
+    <row r="461" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C461" s="16"/>
       <c r="D461" s="16"/>
       <c r="G461" s="16"/>
     </row>
-    <row r="462">
+    <row r="462" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C462" s="16"/>
       <c r="D462" s="16"/>
       <c r="G462" s="16"/>
     </row>
-    <row r="463">
+    <row r="463" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C463" s="16"/>
       <c r="D463" s="16"/>
       <c r="G463" s="16"/>
     </row>
-    <row r="464">
+    <row r="464" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C464" s="16"/>
       <c r="D464" s="16"/>
       <c r="G464" s="16"/>
     </row>
-    <row r="465">
+    <row r="465" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C465" s="16"/>
       <c r="D465" s="16"/>
       <c r="G465" s="16"/>
     </row>
-    <row r="466">
+    <row r="466" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C466" s="16"/>
       <c r="D466" s="16"/>
       <c r="G466" s="16"/>
     </row>
-    <row r="467">
+    <row r="467" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C467" s="16"/>
       <c r="D467" s="16"/>
       <c r="G467" s="16"/>
     </row>
-    <row r="468">
+    <row r="468" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C468" s="16"/>
       <c r="D468" s="16"/>
       <c r="G468" s="16"/>
     </row>
-    <row r="469">
+    <row r="469" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C469" s="16"/>
       <c r="D469" s="16"/>
       <c r="G469" s="16"/>
     </row>
-    <row r="470">
+    <row r="470" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C470" s="16"/>
       <c r="D470" s="16"/>
       <c r="G470" s="16"/>
     </row>
-    <row r="471">
+    <row r="471" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C471" s="16"/>
       <c r="D471" s="16"/>
       <c r="G471" s="16"/>
     </row>
-    <row r="472">
+    <row r="472" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C472" s="16"/>
       <c r="D472" s="16"/>
       <c r="G472" s="16"/>
     </row>
-    <row r="473">
+    <row r="473" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C473" s="16"/>
       <c r="D473" s="16"/>
       <c r="G473" s="16"/>
     </row>
-    <row r="474">
+    <row r="474" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C474" s="16"/>
       <c r="D474" s="16"/>
       <c r="G474" s="16"/>
     </row>
-    <row r="475">
+    <row r="475" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C475" s="16"/>
       <c r="D475" s="16"/>
       <c r="G475" s="16"/>
     </row>
-    <row r="476">
+    <row r="476" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C476" s="16"/>
       <c r="D476" s="16"/>
       <c r="G476" s="16"/>
     </row>
-    <row r="477">
+    <row r="477" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C477" s="16"/>
       <c r="D477" s="16"/>
       <c r="G477" s="16"/>
     </row>
-    <row r="478">
+    <row r="478" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C478" s="16"/>
       <c r="D478" s="16"/>
       <c r="G478" s="16"/>
     </row>
-    <row r="479">
+    <row r="479" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C479" s="16"/>
       <c r="D479" s="16"/>
       <c r="G479" s="16"/>
     </row>
-    <row r="480">
+    <row r="480" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C480" s="16"/>
       <c r="D480" s="16"/>
       <c r="G480" s="16"/>
     </row>
-    <row r="481">
+    <row r="481" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C481" s="16"/>
       <c r="D481" s="16"/>
       <c r="G481" s="16"/>
     </row>
-    <row r="482">
+    <row r="482" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C482" s="16"/>
       <c r="D482" s="16"/>
       <c r="G482" s="16"/>
     </row>
-    <row r="483">
+    <row r="483" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C483" s="16"/>
       <c r="D483" s="16"/>
       <c r="G483" s="16"/>
     </row>
-    <row r="484">
+    <row r="484" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C484" s="16"/>
       <c r="D484" s="16"/>
       <c r="G484" s="16"/>
     </row>
-    <row r="485">
+    <row r="485" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C485" s="16"/>
       <c r="D485" s="16"/>
       <c r="G485" s="16"/>
     </row>
-    <row r="486">
+    <row r="486" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C486" s="16"/>
       <c r="D486" s="16"/>
       <c r="G486" s="16"/>
     </row>
-    <row r="487">
+    <row r="487" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C487" s="16"/>
       <c r="D487" s="16"/>
       <c r="G487" s="16"/>
     </row>
-    <row r="488">
+    <row r="488" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C488" s="16"/>
       <c r="D488" s="16"/>
       <c r="G488" s="16"/>
     </row>
-    <row r="489">
+    <row r="489" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C489" s="16"/>
       <c r="D489" s="16"/>
       <c r="G489" s="16"/>
     </row>
-    <row r="490">
+    <row r="490" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C490" s="16"/>
       <c r="D490" s="16"/>
       <c r="G490" s="16"/>
     </row>
-    <row r="491">
+    <row r="491" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C491" s="16"/>
       <c r="D491" s="16"/>
       <c r="G491" s="16"/>
     </row>
-    <row r="492">
+    <row r="492" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C492" s="16"/>
       <c r="D492" s="16"/>
       <c r="G492" s="16"/>
     </row>
-    <row r="493">
+    <row r="493" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C493" s="16"/>
       <c r="D493" s="16"/>
       <c r="G493" s="16"/>
     </row>
-    <row r="494">
+    <row r="494" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C494" s="16"/>
       <c r="D494" s="16"/>
       <c r="G494" s="16"/>
     </row>
-    <row r="495">
+    <row r="495" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C495" s="16"/>
       <c r="D495" s="16"/>
       <c r="G495" s="16"/>
     </row>
-    <row r="496">
+    <row r="496" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C496" s="16"/>
       <c r="D496" s="16"/>
       <c r="G496" s="16"/>
     </row>
-    <row r="497">
+    <row r="497" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C497" s="16"/>
       <c r="D497" s="16"/>
       <c r="G497" s="16"/>
     </row>
-    <row r="498">
+    <row r="498" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C498" s="16"/>
       <c r="D498" s="16"/>
       <c r="G498" s="16"/>
     </row>
-    <row r="499">
+    <row r="499" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C499" s="16"/>
       <c r="D499" s="16"/>
       <c r="G499" s="16"/>
     </row>
-    <row r="500">
+    <row r="500" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C500" s="16"/>
       <c r="D500" s="16"/>
       <c r="G500" s="16"/>
     </row>
-    <row r="501">
+    <row r="501" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C501" s="16"/>
       <c r="D501" s="16"/>
       <c r="G501" s="16"/>
     </row>
-    <row r="502">
+    <row r="502" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C502" s="16"/>
       <c r="D502" s="16"/>
       <c r="G502" s="16"/>
     </row>
-    <row r="503">
+    <row r="503" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C503" s="16"/>
       <c r="D503" s="16"/>
       <c r="G503" s="16"/>
     </row>
-    <row r="504">
+    <row r="504" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C504" s="16"/>
       <c r="D504" s="16"/>
       <c r="G504" s="16"/>
     </row>
-    <row r="505">
+    <row r="505" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C505" s="16"/>
       <c r="D505" s="16"/>
       <c r="G505" s="16"/>
     </row>
-    <row r="506">
+    <row r="506" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C506" s="16"/>
       <c r="D506" s="16"/>
       <c r="G506" s="16"/>
     </row>
-    <row r="507">
+    <row r="507" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C507" s="16"/>
       <c r="D507" s="16"/>
       <c r="G507" s="16"/>
     </row>
-    <row r="508">
+    <row r="508" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C508" s="16"/>
       <c r="D508" s="16"/>
       <c r="G508" s="16"/>
     </row>
-    <row r="509">
+    <row r="509" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C509" s="16"/>
       <c r="D509" s="16"/>
       <c r="G509" s="16"/>
     </row>
-    <row r="510">
+    <row r="510" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C510" s="16"/>
       <c r="D510" s="16"/>
       <c r="G510" s="16"/>
     </row>
-    <row r="511">
+    <row r="511" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C511" s="16"/>
       <c r="D511" s="16"/>
       <c r="G511" s="16"/>
     </row>
-    <row r="512">
+    <row r="512" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C512" s="16"/>
       <c r="D512" s="16"/>
       <c r="G512" s="16"/>
     </row>
-    <row r="513">
+    <row r="513" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C513" s="16"/>
       <c r="D513" s="16"/>
       <c r="G513" s="16"/>
     </row>
-    <row r="514">
+    <row r="514" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C514" s="16"/>
       <c r="D514" s="16"/>
       <c r="G514" s="16"/>
     </row>
-    <row r="515">
+    <row r="515" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C515" s="16"/>
       <c r="D515" s="16"/>
       <c r="G515" s="16"/>
     </row>
-    <row r="516">
+    <row r="516" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C516" s="16"/>
       <c r="D516" s="16"/>
       <c r="G516" s="16"/>
     </row>
-    <row r="517">
+    <row r="517" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C517" s="16"/>
       <c r="D517" s="16"/>
       <c r="G517" s="16"/>
     </row>
-    <row r="518">
+    <row r="518" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C518" s="16"/>
       <c r="D518" s="16"/>
       <c r="G518" s="16"/>
     </row>
-    <row r="519">
+    <row r="519" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C519" s="16"/>
       <c r="D519" s="16"/>
       <c r="G519" s="16"/>
     </row>
-    <row r="520">
+    <row r="520" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C520" s="16"/>
       <c r="D520" s="16"/>
       <c r="G520" s="16"/>
     </row>
-    <row r="521">
+    <row r="521" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C521" s="16"/>
       <c r="D521" s="16"/>
       <c r="G521" s="16"/>
     </row>
-    <row r="522">
+    <row r="522" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C522" s="16"/>
       <c r="D522" s="16"/>
       <c r="G522" s="16"/>
     </row>
-    <row r="523">
+    <row r="523" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C523" s="16"/>
       <c r="D523" s="16"/>
       <c r="G523" s="16"/>
     </row>
-    <row r="524">
+    <row r="524" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C524" s="16"/>
       <c r="D524" s="16"/>
       <c r="G524" s="16"/>
     </row>
-    <row r="525">
+    <row r="525" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C525" s="16"/>
       <c r="D525" s="16"/>
       <c r="G525" s="16"/>
     </row>
-    <row r="526">
+    <row r="526" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C526" s="16"/>
       <c r="D526" s="16"/>
       <c r="G526" s="16"/>
     </row>
-    <row r="527">
+    <row r="527" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C527" s="16"/>
       <c r="D527" s="16"/>
       <c r="G527" s="16"/>
     </row>
-    <row r="528">
+    <row r="528" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C528" s="16"/>
       <c r="D528" s="16"/>
       <c r="G528" s="16"/>
     </row>
-    <row r="529">
+    <row r="529" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C529" s="16"/>
       <c r="D529" s="16"/>
       <c r="G529" s="16"/>
     </row>
-    <row r="530">
+    <row r="530" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C530" s="16"/>
       <c r="D530" s="16"/>
       <c r="G530" s="16"/>
     </row>
-    <row r="531">
+    <row r="531" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C531" s="16"/>
       <c r="D531" s="16"/>
       <c r="G531" s="16"/>
     </row>
-    <row r="532">
+    <row r="532" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C532" s="16"/>
       <c r="D532" s="16"/>
       <c r="G532" s="16"/>
     </row>
-    <row r="533">
+    <row r="533" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C533" s="16"/>
       <c r="D533" s="16"/>
       <c r="G533" s="16"/>
     </row>
-    <row r="534">
+    <row r="534" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C534" s="16"/>
       <c r="D534" s="16"/>
       <c r="G534" s="16"/>
     </row>
-    <row r="535">
+    <row r="535" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C535" s="16"/>
       <c r="D535" s="16"/>
       <c r="G535" s="16"/>
     </row>
-    <row r="536">
+    <row r="536" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C536" s="16"/>
       <c r="D536" s="16"/>
       <c r="G536" s="16"/>
     </row>
-    <row r="537">
+    <row r="537" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C537" s="16"/>
       <c r="D537" s="16"/>
       <c r="G537" s="16"/>
     </row>
-    <row r="538">
+    <row r="538" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C538" s="16"/>
       <c r="D538" s="16"/>
       <c r="G538" s="16"/>
     </row>
-    <row r="539">
+    <row r="539" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C539" s="16"/>
       <c r="D539" s="16"/>
       <c r="G539" s="16"/>
     </row>
-    <row r="540">
+    <row r="540" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C540" s="16"/>
       <c r="D540" s="16"/>
       <c r="G540" s="16"/>
     </row>
-    <row r="541">
+    <row r="541" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C541" s="16"/>
       <c r="D541" s="16"/>
       <c r="G541" s="16"/>
     </row>
-    <row r="542">
+    <row r="542" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C542" s="16"/>
       <c r="D542" s="16"/>
       <c r="G542" s="16"/>
     </row>
-    <row r="543">
+    <row r="543" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C543" s="16"/>
       <c r="D543" s="16"/>
       <c r="G543" s="16"/>
     </row>
-    <row r="544">
+    <row r="544" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C544" s="16"/>
       <c r="D544" s="16"/>
       <c r="G544" s="16"/>
     </row>
-    <row r="545">
+    <row r="545" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C545" s="16"/>
       <c r="D545" s="16"/>
       <c r="G545" s="16"/>
     </row>
-    <row r="546">
+    <row r="546" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C546" s="16"/>
       <c r="D546" s="16"/>
       <c r="G546" s="16"/>
     </row>
-    <row r="547">
+    <row r="547" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C547" s="16"/>
       <c r="D547" s="16"/>
       <c r="G547" s="16"/>
     </row>
-    <row r="548">
+    <row r="548" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C548" s="16"/>
       <c r="D548" s="16"/>
       <c r="G548" s="16"/>
     </row>
-    <row r="549">
+    <row r="549" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C549" s="16"/>
       <c r="D549" s="16"/>
       <c r="G549" s="16"/>
     </row>
-    <row r="550">
+    <row r="550" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C550" s="16"/>
       <c r="D550" s="16"/>
       <c r="G550" s="16"/>
     </row>
-    <row r="551">
+    <row r="551" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C551" s="16"/>
       <c r="D551" s="16"/>
       <c r="G551" s="16"/>
     </row>
-    <row r="552">
+    <row r="552" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C552" s="16"/>
       <c r="D552" s="16"/>
       <c r="G552" s="16"/>
     </row>
-    <row r="553">
+    <row r="553" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C553" s="16"/>
       <c r="D553" s="16"/>
       <c r="G553" s="16"/>
     </row>
-    <row r="554">
+    <row r="554" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C554" s="16"/>
       <c r="D554" s="16"/>
       <c r="G554" s="16"/>
     </row>
-    <row r="555">
+    <row r="555" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C555" s="16"/>
       <c r="D555" s="16"/>
       <c r="G555" s="16"/>
     </row>
-    <row r="556">
+    <row r="556" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C556" s="16"/>
       <c r="D556" s="16"/>
       <c r="G556" s="16"/>
     </row>
-    <row r="557">
+    <row r="557" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C557" s="16"/>
       <c r="D557" s="16"/>
       <c r="G557" s="16"/>
     </row>
-    <row r="558">
+    <row r="558" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C558" s="16"/>
       <c r="D558" s="16"/>
       <c r="G558" s="16"/>
     </row>
-    <row r="559">
+    <row r="559" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C559" s="16"/>
       <c r="D559" s="16"/>
       <c r="G559" s="16"/>
     </row>
-    <row r="560">
+    <row r="560" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C560" s="16"/>
       <c r="D560" s="16"/>
       <c r="G560" s="16"/>
     </row>
-    <row r="561">
+    <row r="561" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C561" s="16"/>
       <c r="D561" s="16"/>
       <c r="G561" s="16"/>
     </row>
-    <row r="562">
+    <row r="562" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C562" s="16"/>
       <c r="D562" s="16"/>
       <c r="G562" s="16"/>
     </row>
-    <row r="563">
+    <row r="563" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C563" s="16"/>
       <c r="D563" s="16"/>
       <c r="G563" s="16"/>
     </row>
-    <row r="564">
+    <row r="564" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C564" s="16"/>
       <c r="D564" s="16"/>
       <c r="G564" s="16"/>
     </row>
-    <row r="565">
+    <row r="565" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C565" s="16"/>
       <c r="D565" s="16"/>
       <c r="G565" s="16"/>
     </row>
-    <row r="566">
+    <row r="566" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C566" s="16"/>
       <c r="D566" s="16"/>
       <c r="G566" s="16"/>
     </row>
-    <row r="567">
+    <row r="567" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C567" s="16"/>
       <c r="D567" s="16"/>
       <c r="G567" s="16"/>
     </row>
-    <row r="568">
+    <row r="568" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C568" s="16"/>
       <c r="D568" s="16"/>
       <c r="G568" s="16"/>
     </row>
-    <row r="569">
+    <row r="569" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C569" s="16"/>
       <c r="D569" s="16"/>
       <c r="G569" s="16"/>
     </row>
-    <row r="570">
+    <row r="570" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C570" s="16"/>
       <c r="D570" s="16"/>
       <c r="G570" s="16"/>
     </row>
-    <row r="571">
+    <row r="571" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C571" s="16"/>
       <c r="D571" s="16"/>
       <c r="G571" s="16"/>
     </row>
-    <row r="572">
+    <row r="572" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C572" s="16"/>
       <c r="D572" s="16"/>
       <c r="G572" s="16"/>
     </row>
-    <row r="573">
+    <row r="573" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C573" s="16"/>
       <c r="D573" s="16"/>
       <c r="G573" s="16"/>
     </row>
-    <row r="574">
+    <row r="574" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C574" s="16"/>
       <c r="D574" s="16"/>
       <c r="G574" s="16"/>
     </row>
-    <row r="575">
+    <row r="575" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C575" s="16"/>
       <c r="D575" s="16"/>
       <c r="G575" s="16"/>
     </row>
-    <row r="576">
+    <row r="576" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C576" s="16"/>
       <c r="D576" s="16"/>
       <c r="G576" s="16"/>
     </row>
-    <row r="577">
+    <row r="577" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C577" s="16"/>
       <c r="D577" s="16"/>
       <c r="G577" s="16"/>
     </row>
-    <row r="578">
+    <row r="578" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C578" s="16"/>
       <c r="D578" s="16"/>
       <c r="G578" s="16"/>
     </row>
-    <row r="579">
+    <row r="579" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C579" s="16"/>
       <c r="D579" s="16"/>
       <c r="G579" s="16"/>
     </row>
-    <row r="580">
+    <row r="580" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C580" s="16"/>
       <c r="D580" s="16"/>
       <c r="G580" s="16"/>
     </row>
-    <row r="581">
+    <row r="581" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C581" s="16"/>
       <c r="D581" s="16"/>
       <c r="G581" s="16"/>
     </row>
-    <row r="582">
+    <row r="582" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C582" s="16"/>
       <c r="D582" s="16"/>
       <c r="G582" s="16"/>
     </row>
-    <row r="583">
+    <row r="583" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C583" s="16"/>
       <c r="D583" s="16"/>
       <c r="G583" s="16"/>
     </row>
-    <row r="584">
+    <row r="584" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C584" s="16"/>
       <c r="D584" s="16"/>
       <c r="G584" s="16"/>
     </row>
-    <row r="585">
+    <row r="585" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C585" s="16"/>
       <c r="D585" s="16"/>
       <c r="G585" s="16"/>
     </row>
-    <row r="586">
+    <row r="586" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C586" s="16"/>
       <c r="D586" s="16"/>
       <c r="G586" s="16"/>
     </row>
-    <row r="587">
+    <row r="587" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C587" s="16"/>
       <c r="D587" s="16"/>
       <c r="G587" s="16"/>
     </row>
-    <row r="588">
+    <row r="588" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C588" s="16"/>
       <c r="D588" s="16"/>
       <c r="G588" s="16"/>
     </row>
-    <row r="589">
+    <row r="589" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C589" s="16"/>
       <c r="D589" s="16"/>
       <c r="G589" s="16"/>
     </row>
-    <row r="590">
+    <row r="590" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C590" s="16"/>
       <c r="D590" s="16"/>
       <c r="G590" s="16"/>
     </row>
-    <row r="591">
+    <row r="591" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C591" s="16"/>
       <c r="D591" s="16"/>
       <c r="G591" s="16"/>
     </row>
-    <row r="592">
+    <row r="592" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C592" s="16"/>
       <c r="D592" s="16"/>
       <c r="G592" s="16"/>
     </row>
-    <row r="593">
+    <row r="593" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C593" s="16"/>
       <c r="D593" s="16"/>
       <c r="G593" s="16"/>
     </row>
-    <row r="594">
+    <row r="594" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C594" s="16"/>
       <c r="D594" s="16"/>
       <c r="G594" s="16"/>
     </row>
-    <row r="595">
+    <row r="595" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C595" s="16"/>
       <c r="D595" s="16"/>
       <c r="G595" s="16"/>
     </row>
-    <row r="596">
+    <row r="596" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C596" s="16"/>
       <c r="D596" s="16"/>
       <c r="G596" s="16"/>
     </row>
-    <row r="597">
+    <row r="597" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C597" s="16"/>
       <c r="D597" s="16"/>
       <c r="G597" s="16"/>
     </row>
-    <row r="598">
+    <row r="598" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C598" s="16"/>
       <c r="D598" s="16"/>
       <c r="G598" s="16"/>
     </row>
-    <row r="599">
+    <row r="599" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C599" s="16"/>
       <c r="D599" s="16"/>
       <c r="G599" s="16"/>
     </row>
-    <row r="600">
+    <row r="600" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C600" s="16"/>
       <c r="D600" s="16"/>
       <c r="G600" s="16"/>
     </row>
-    <row r="601">
+    <row r="601" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C601" s="16"/>
       <c r="D601" s="16"/>
       <c r="G601" s="16"/>
     </row>
-    <row r="602">
+    <row r="602" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C602" s="16"/>
       <c r="D602" s="16"/>
       <c r="G602" s="16"/>
     </row>
-    <row r="603">
+    <row r="603" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C603" s="16"/>
       <c r="D603" s="16"/>
       <c r="G603" s="16"/>
     </row>
-    <row r="604">
+    <row r="604" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C604" s="16"/>
       <c r="D604" s="16"/>
       <c r="G604" s="16"/>
     </row>
-    <row r="605">
+    <row r="605" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C605" s="16"/>
       <c r="D605" s="16"/>
       <c r="G605" s="16"/>
     </row>
-    <row r="606">
+    <row r="606" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C606" s="16"/>
       <c r="D606" s="16"/>
       <c r="G606" s="16"/>
     </row>
-    <row r="607">
+    <row r="607" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C607" s="16"/>
       <c r="D607" s="16"/>
       <c r="G607" s="16"/>
     </row>
-    <row r="608">
+    <row r="608" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C608" s="16"/>
       <c r="D608" s="16"/>
       <c r="G608" s="16"/>
     </row>
-    <row r="609">
+    <row r="609" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C609" s="16"/>
       <c r="D609" s="16"/>
       <c r="G609" s="16"/>
     </row>
-    <row r="610">
+    <row r="610" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C610" s="16"/>
       <c r="D610" s="16"/>
       <c r="G610" s="16"/>
     </row>
-    <row r="611">
+    <row r="611" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C611" s="16"/>
       <c r="D611" s="16"/>
       <c r="G611" s="16"/>
     </row>
-    <row r="612">
+    <row r="612" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C612" s="16"/>
       <c r="D612" s="16"/>
       <c r="G612" s="16"/>
     </row>
-    <row r="613">
+    <row r="613" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C613" s="16"/>
       <c r="D613" s="16"/>
       <c r="G613" s="16"/>
     </row>
-    <row r="614">
+    <row r="614" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C614" s="16"/>
       <c r="D614" s="16"/>
       <c r="G614" s="16"/>
     </row>
-    <row r="615">
+    <row r="615" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C615" s="16"/>
       <c r="D615" s="16"/>
       <c r="G615" s="16"/>
     </row>
-    <row r="616">
+    <row r="616" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C616" s="16"/>
       <c r="D616" s="16"/>
       <c r="G616" s="16"/>
     </row>
-    <row r="617">
+    <row r="617" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C617" s="16"/>
       <c r="D617" s="16"/>
       <c r="G617" s="16"/>
     </row>
-    <row r="618">
+    <row r="618" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C618" s="16"/>
       <c r="D618" s="16"/>
       <c r="G618" s="16"/>
     </row>
-    <row r="619">
+    <row r="619" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C619" s="16"/>
       <c r="D619" s="16"/>
       <c r="G619" s="16"/>
     </row>
-    <row r="620">
+    <row r="620" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C620" s="16"/>
       <c r="D620" s="16"/>
       <c r="G620" s="16"/>
     </row>
-    <row r="621">
+    <row r="621" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C621" s="16"/>
       <c r="D621" s="16"/>
       <c r="G621" s="16"/>
     </row>
-    <row r="622">
+    <row r="622" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C622" s="16"/>
       <c r="D622" s="16"/>
       <c r="G622" s="16"/>
     </row>
-    <row r="623">
+    <row r="623" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C623" s="16"/>
       <c r="D623" s="16"/>
       <c r="G623" s="16"/>
     </row>
-    <row r="624">
+    <row r="624" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C624" s="16"/>
       <c r="D624" s="16"/>
       <c r="G624" s="16"/>
     </row>
-    <row r="625">
+    <row r="625" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C625" s="16"/>
       <c r="D625" s="16"/>
       <c r="G625" s="16"/>
     </row>
-    <row r="626">
+    <row r="626" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C626" s="16"/>
       <c r="D626" s="16"/>
       <c r="G626" s="16"/>
     </row>
-    <row r="627">
+    <row r="627" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C627" s="16"/>
       <c r="D627" s="16"/>
       <c r="G627" s="16"/>
     </row>
-    <row r="628">
+    <row r="628" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C628" s="16"/>
       <c r="D628" s="16"/>
       <c r="G628" s="16"/>
     </row>
-    <row r="629">
+    <row r="629" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C629" s="16"/>
       <c r="D629" s="16"/>
       <c r="G629" s="16"/>
     </row>
-    <row r="630">
+    <row r="630" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C630" s="16"/>
       <c r="D630" s="16"/>
       <c r="G630" s="16"/>
     </row>
-    <row r="631">
+    <row r="631" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C631" s="16"/>
       <c r="D631" s="16"/>
       <c r="G631" s="16"/>
     </row>
-    <row r="632">
+    <row r="632" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C632" s="16"/>
       <c r="D632" s="16"/>
       <c r="G632" s="16"/>
     </row>
-    <row r="633">
+    <row r="633" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C633" s="16"/>
       <c r="D633" s="16"/>
       <c r="G633" s="16"/>
     </row>
-    <row r="634">
+    <row r="634" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C634" s="16"/>
       <c r="D634" s="16"/>
       <c r="G634" s="16"/>
     </row>
-    <row r="635">
+    <row r="635" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C635" s="16"/>
       <c r="D635" s="16"/>
       <c r="G635" s="16"/>
     </row>
-    <row r="636">
+    <row r="636" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C636" s="16"/>
       <c r="D636" s="16"/>
       <c r="G636" s="16"/>
     </row>
-    <row r="637">
+    <row r="637" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C637" s="16"/>
       <c r="D637" s="16"/>
       <c r="G637" s="16"/>
     </row>
-    <row r="638">
+    <row r="638" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C638" s="16"/>
       <c r="D638" s="16"/>
       <c r="G638" s="16"/>
     </row>
-    <row r="639">
+    <row r="639" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C639" s="16"/>
       <c r="D639" s="16"/>
       <c r="G639" s="16"/>
     </row>
-    <row r="640">
+    <row r="640" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C640" s="16"/>
       <c r="D640" s="16"/>
       <c r="G640" s="16"/>
     </row>
-    <row r="641">
+    <row r="641" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C641" s="16"/>
       <c r="D641" s="16"/>
       <c r="G641" s="16"/>
     </row>
-    <row r="642">
+    <row r="642" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C642" s="16"/>
       <c r="D642" s="16"/>
       <c r="G642" s="16"/>
     </row>
-    <row r="643">
+    <row r="643" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C643" s="16"/>
       <c r="D643" s="16"/>
       <c r="G643" s="16"/>
     </row>
-    <row r="644">
+    <row r="644" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C644" s="16"/>
       <c r="D644" s="16"/>
       <c r="G644" s="16"/>
     </row>
-    <row r="645">
+    <row r="645" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C645" s="16"/>
       <c r="D645" s="16"/>
       <c r="G645" s="16"/>
     </row>
-    <row r="646">
+    <row r="646" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C646" s="16"/>
       <c r="D646" s="16"/>
       <c r="G646" s="16"/>
     </row>
-    <row r="647">
+    <row r="647" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C647" s="16"/>
       <c r="D647" s="16"/>
       <c r="G647" s="16"/>
     </row>
-    <row r="648">
+    <row r="648" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C648" s="16"/>
       <c r="D648" s="16"/>
       <c r="G648" s="16"/>
     </row>
-    <row r="649">
+    <row r="649" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C649" s="16"/>
       <c r="D649" s="16"/>
       <c r="G649" s="16"/>
     </row>
-    <row r="650">
+    <row r="650" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C650" s="16"/>
       <c r="D650" s="16"/>
       <c r="G650" s="16"/>
     </row>
-    <row r="651">
+    <row r="651" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C651" s="16"/>
       <c r="D651" s="16"/>
       <c r="G651" s="16"/>
     </row>
-    <row r="652">
+    <row r="652" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C652" s="16"/>
       <c r="D652" s="16"/>
       <c r="G652" s="16"/>
     </row>
-    <row r="653">
+    <row r="653" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C653" s="16"/>
       <c r="D653" s="16"/>
       <c r="G653" s="16"/>
     </row>
-    <row r="654">
+    <row r="654" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C654" s="16"/>
       <c r="D654" s="16"/>
       <c r="G654" s="16"/>
     </row>
-    <row r="655">
+    <row r="655" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C655" s="16"/>
       <c r="D655" s="16"/>
       <c r="G655" s="16"/>
     </row>
-    <row r="656">
+    <row r="656" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C656" s="16"/>
       <c r="D656" s="16"/>
       <c r="G656" s="16"/>
     </row>
-    <row r="657">
+    <row r="657" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C657" s="16"/>
       <c r="D657" s="16"/>
       <c r="G657" s="16"/>
     </row>
-    <row r="658">
+    <row r="658" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C658" s="16"/>
       <c r="D658" s="16"/>
       <c r="G658" s="16"/>
     </row>
-    <row r="659">
+    <row r="659" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C659" s="16"/>
       <c r="D659" s="16"/>
       <c r="G659" s="16"/>
     </row>
-    <row r="660">
+    <row r="660" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C660" s="16"/>
       <c r="D660" s="16"/>
       <c r="G660" s="16"/>
     </row>
-    <row r="661">
+    <row r="661" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C661" s="16"/>
       <c r="D661" s="16"/>
       <c r="G661" s="16"/>
     </row>
-    <row r="662">
+    <row r="662" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C662" s="16"/>
       <c r="D662" s="16"/>
       <c r="G662" s="16"/>
     </row>
-    <row r="663">
+    <row r="663" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C663" s="16"/>
       <c r="D663" s="16"/>
       <c r="G663" s="16"/>
     </row>
-    <row r="664">
+    <row r="664" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C664" s="16"/>
       <c r="D664" s="16"/>
       <c r="G664" s="16"/>
     </row>
-    <row r="665">
+    <row r="665" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C665" s="16"/>
       <c r="D665" s="16"/>
       <c r="G665" s="16"/>
     </row>
-    <row r="666">
+    <row r="666" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C666" s="16"/>
       <c r="D666" s="16"/>
       <c r="G666" s="16"/>
     </row>
-    <row r="667">
+    <row r="667" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C667" s="16"/>
       <c r="D667" s="16"/>
       <c r="G667" s="16"/>
     </row>
-    <row r="668">
+    <row r="668" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C668" s="16"/>
       <c r="D668" s="16"/>
       <c r="G668" s="16"/>
     </row>
-    <row r="669">
+    <row r="669" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C669" s="16"/>
       <c r="D669" s="16"/>
       <c r="G669" s="16"/>
     </row>
-    <row r="670">
+    <row r="670" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C670" s="16"/>
       <c r="D670" s="16"/>
       <c r="G670" s="16"/>
     </row>
-    <row r="671">
+    <row r="671" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C671" s="16"/>
       <c r="D671" s="16"/>
       <c r="G671" s="16"/>
     </row>
-    <row r="672">
+    <row r="672" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C672" s="16"/>
       <c r="D672" s="16"/>
       <c r="G672" s="16"/>
     </row>
-    <row r="673">
+    <row r="673" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C673" s="16"/>
       <c r="D673" s="16"/>
       <c r="G673" s="16"/>
     </row>
-    <row r="674">
+    <row r="674" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C674" s="16"/>
       <c r="D674" s="16"/>
       <c r="G674" s="16"/>
     </row>
-    <row r="675">
+    <row r="675" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C675" s="16"/>
       <c r="D675" s="16"/>
       <c r="G675" s="16"/>
     </row>
-    <row r="676">
+    <row r="676" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C676" s="16"/>
       <c r="D676" s="16"/>
       <c r="G676" s="16"/>
     </row>
-    <row r="677">
+    <row r="677" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C677" s="16"/>
       <c r="D677" s="16"/>
       <c r="G677" s="16"/>
     </row>
-    <row r="678">
+    <row r="678" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C678" s="16"/>
       <c r="D678" s="16"/>
       <c r="G678" s="16"/>
     </row>
-    <row r="679">
+    <row r="679" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C679" s="16"/>
       <c r="D679" s="16"/>
       <c r="G679" s="16"/>
     </row>
-    <row r="680">
+    <row r="680" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C680" s="16"/>
       <c r="D680" s="16"/>
       <c r="G680" s="16"/>
     </row>
-    <row r="681">
+    <row r="681" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C681" s="16"/>
       <c r="D681" s="16"/>
       <c r="G681" s="16"/>
     </row>
-    <row r="682">
+    <row r="682" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C682" s="16"/>
       <c r="D682" s="16"/>
       <c r="G682" s="16"/>
     </row>
-    <row r="683">
+    <row r="683" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C683" s="16"/>
       <c r="D683" s="16"/>
       <c r="G683" s="16"/>
     </row>
-    <row r="684">
+    <row r="684" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C684" s="16"/>
       <c r="D684" s="16"/>
       <c r="G684" s="16"/>
     </row>
-    <row r="685">
+    <row r="685" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C685" s="16"/>
       <c r="D685" s="16"/>
       <c r="G685" s="16"/>
     </row>
-    <row r="686">
+    <row r="686" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C686" s="16"/>
       <c r="D686" s="16"/>
       <c r="G686" s="16"/>
     </row>
-    <row r="687">
+    <row r="687" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C687" s="16"/>
       <c r="D687" s="16"/>
       <c r="G687" s="16"/>
     </row>
-    <row r="688">
+    <row r="688" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C688" s="16"/>
       <c r="D688" s="16"/>
       <c r="G688" s="16"/>
     </row>
-    <row r="689">
+    <row r="689" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C689" s="16"/>
       <c r="D689" s="16"/>
       <c r="G689" s="16"/>
     </row>
-    <row r="690">
+    <row r="690" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C690" s="16"/>
       <c r="D690" s="16"/>
       <c r="G690" s="16"/>
     </row>
-    <row r="691">
+    <row r="691" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C691" s="16"/>
       <c r="D691" s="16"/>
       <c r="G691" s="16"/>
     </row>
-    <row r="692">
+    <row r="692" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C692" s="16"/>
       <c r="D692" s="16"/>
       <c r="G692" s="16"/>
     </row>
-    <row r="693">
+    <row r="693" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C693" s="16"/>
       <c r="D693" s="16"/>
       <c r="G693" s="16"/>
     </row>
-    <row r="694">
+    <row r="694" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C694" s="16"/>
       <c r="D694" s="16"/>
       <c r="G694" s="16"/>
     </row>
-    <row r="695">
+    <row r="695" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C695" s="16"/>
       <c r="D695" s="16"/>
       <c r="G695" s="16"/>
     </row>
-    <row r="696">
+    <row r="696" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C696" s="16"/>
       <c r="D696" s="16"/>
       <c r="G696" s="16"/>
     </row>
-    <row r="697">
+    <row r="697" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C697" s="16"/>
       <c r="D697" s="16"/>
       <c r="G697" s="16"/>
     </row>
-    <row r="698">
+    <row r="698" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C698" s="16"/>
       <c r="D698" s="16"/>
       <c r="G698" s="16"/>
     </row>
-    <row r="699">
+    <row r="699" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C699" s="16"/>
       <c r="D699" s="16"/>
       <c r="G699" s="16"/>
     </row>
-    <row r="700">
+    <row r="700" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C700" s="16"/>
       <c r="D700" s="16"/>
       <c r="G700" s="16"/>
     </row>
-    <row r="701">
+    <row r="701" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C701" s="16"/>
       <c r="D701" s="16"/>
       <c r="G701" s="16"/>
     </row>
-    <row r="702">
+    <row r="702" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C702" s="16"/>
       <c r="D702" s="16"/>
       <c r="G702" s="16"/>
     </row>
-    <row r="703">
+    <row r="703" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C703" s="16"/>
       <c r="D703" s="16"/>
       <c r="G703" s="16"/>
     </row>
-    <row r="704">
+    <row r="704" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C704" s="16"/>
       <c r="D704" s="16"/>
       <c r="G704" s="16"/>
     </row>
-    <row r="705">
+    <row r="705" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C705" s="16"/>
       <c r="D705" s="16"/>
       <c r="G705" s="16"/>
     </row>
-    <row r="706">
+    <row r="706" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C706" s="16"/>
       <c r="D706" s="16"/>
       <c r="G706" s="16"/>
     </row>
-    <row r="707">
+    <row r="707" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C707" s="16"/>
       <c r="D707" s="16"/>
       <c r="G707" s="16"/>
     </row>
-    <row r="708">
+    <row r="708" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C708" s="16"/>
       <c r="D708" s="16"/>
       <c r="G708" s="16"/>
     </row>
-    <row r="709">
+    <row r="709" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C709" s="16"/>
       <c r="D709" s="16"/>
       <c r="G709" s="16"/>
     </row>
-    <row r="710">
+    <row r="710" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C710" s="16"/>
       <c r="D710" s="16"/>
       <c r="G710" s="16"/>
     </row>
-    <row r="711">
+    <row r="711" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C711" s="16"/>
       <c r="D711" s="16"/>
       <c r="G711" s="16"/>
     </row>
-    <row r="712">
+    <row r="712" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C712" s="16"/>
       <c r="D712" s="16"/>
       <c r="G712" s="16"/>
     </row>
-    <row r="713">
+    <row r="713" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C713" s="16"/>
       <c r="D713" s="16"/>
       <c r="G713" s="16"/>
     </row>
-    <row r="714">
+    <row r="714" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C714" s="16"/>
       <c r="D714" s="16"/>
       <c r="G714" s="16"/>
     </row>
-    <row r="715">
+    <row r="715" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C715" s="16"/>
       <c r="D715" s="16"/>
       <c r="G715" s="16"/>
     </row>
-    <row r="716">
+    <row r="716" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C716" s="16"/>
       <c r="D716" s="16"/>
       <c r="G716" s="16"/>
     </row>
-    <row r="717">
+    <row r="717" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C717" s="16"/>
       <c r="D717" s="16"/>
       <c r="G717" s="16"/>
     </row>
-    <row r="718">
+    <row r="718" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C718" s="16"/>
       <c r="D718" s="16"/>
       <c r="G718" s="16"/>
     </row>
-    <row r="719">
+    <row r="719" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C719" s="16"/>
       <c r="D719" s="16"/>
       <c r="G719" s="16"/>
     </row>
-    <row r="720">
+    <row r="720" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C720" s="16"/>
       <c r="D720" s="16"/>
       <c r="G720" s="16"/>
     </row>
-    <row r="721">
+    <row r="721" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C721" s="16"/>
       <c r="D721" s="16"/>
       <c r="G721" s="16"/>
     </row>
-    <row r="722">
+    <row r="722" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C722" s="16"/>
       <c r="D722" s="16"/>
       <c r="G722" s="16"/>
     </row>
-    <row r="723">
+    <row r="723" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C723" s="16"/>
       <c r="D723" s="16"/>
       <c r="G723" s="16"/>
     </row>
-    <row r="724">
+    <row r="724" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C724" s="16"/>
       <c r="D724" s="16"/>
       <c r="G724" s="16"/>
     </row>
-    <row r="725">
+    <row r="725" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C725" s="16"/>
       <c r="D725" s="16"/>
       <c r="G725" s="16"/>
     </row>
-    <row r="726">
+    <row r="726" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C726" s="16"/>
       <c r="D726" s="16"/>
       <c r="G726" s="16"/>
     </row>
-    <row r="727">
+    <row r="727" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C727" s="16"/>
       <c r="D727" s="16"/>
       <c r="G727" s="16"/>
     </row>
-    <row r="728">
+    <row r="728" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C728" s="16"/>
       <c r="D728" s="16"/>
       <c r="G728" s="16"/>
     </row>
-    <row r="729">
+    <row r="729" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C729" s="16"/>
       <c r="D729" s="16"/>
       <c r="G729" s="16"/>
     </row>
-    <row r="730">
+    <row r="730" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C730" s="16"/>
       <c r="D730" s="16"/>
       <c r="G730" s="16"/>
     </row>
-    <row r="731">
+    <row r="731" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C731" s="16"/>
       <c r="D731" s="16"/>
       <c r="G731" s="16"/>
     </row>
-    <row r="732">
+    <row r="732" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C732" s="16"/>
       <c r="D732" s="16"/>
       <c r="G732" s="16"/>
     </row>
-    <row r="733">
+    <row r="733" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C733" s="16"/>
       <c r="D733" s="16"/>
       <c r="G733" s="16"/>
     </row>
-    <row r="734">
+    <row r="734" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C734" s="16"/>
       <c r="D734" s="16"/>
       <c r="G734" s="16"/>
     </row>
-    <row r="735">
+    <row r="735" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C735" s="16"/>
       <c r="D735" s="16"/>
       <c r="G735" s="16"/>
     </row>
-    <row r="736">
+    <row r="736" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C736" s="16"/>
       <c r="D736" s="16"/>
       <c r="G736" s="16"/>
     </row>
-    <row r="737">
+    <row r="737" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C737" s="16"/>
       <c r="D737" s="16"/>
       <c r="G737" s="16"/>
     </row>
-    <row r="738">
+    <row r="738" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C738" s="16"/>
       <c r="D738" s="16"/>
       <c r="G738" s="16"/>
     </row>
-    <row r="739">
+    <row r="739" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C739" s="16"/>
       <c r="D739" s="16"/>
       <c r="G739" s="16"/>
     </row>
-    <row r="740">
+    <row r="740" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C740" s="16"/>
       <c r="D740" s="16"/>
       <c r="G740" s="16"/>
     </row>
-    <row r="741">
+    <row r="741" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C741" s="16"/>
       <c r="D741" s="16"/>
       <c r="G741" s="16"/>
     </row>
-    <row r="742">
+    <row r="742" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C742" s="16"/>
       <c r="D742" s="16"/>
       <c r="G742" s="16"/>
     </row>
-    <row r="743">
+    <row r="743" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C743" s="16"/>
       <c r="D743" s="16"/>
       <c r="G743" s="16"/>
     </row>
-    <row r="744">
+    <row r="744" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C744" s="16"/>
       <c r="D744" s="16"/>
       <c r="G744" s="16"/>
     </row>
-    <row r="745">
+    <row r="745" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C745" s="16"/>
       <c r="D745" s="16"/>
       <c r="G745" s="16"/>
     </row>
-    <row r="746">
+    <row r="746" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C746" s="16"/>
       <c r="D746" s="16"/>
       <c r="G746" s="16"/>
     </row>
-    <row r="747">
+    <row r="747" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C747" s="16"/>
       <c r="D747" s="16"/>
       <c r="G747" s="16"/>
     </row>
-    <row r="748">
+    <row r="748" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C748" s="16"/>
       <c r="D748" s="16"/>
       <c r="G748" s="16"/>
     </row>
-    <row r="749">
+    <row r="749" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C749" s="16"/>
       <c r="D749" s="16"/>
       <c r="G749" s="16"/>
     </row>
-    <row r="750">
+    <row r="750" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C750" s="16"/>
       <c r="D750" s="16"/>
       <c r="G750" s="16"/>
     </row>
-    <row r="751">
+    <row r="751" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C751" s="16"/>
       <c r="D751" s="16"/>
       <c r="G751" s="16"/>
     </row>
-    <row r="752">
+    <row r="752" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C752" s="16"/>
       <c r="D752" s="16"/>
       <c r="G752" s="16"/>
     </row>
-    <row r="753">
+    <row r="753" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C753" s="16"/>
       <c r="D753" s="16"/>
       <c r="G753" s="16"/>
     </row>
-    <row r="754">
+    <row r="754" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C754" s="16"/>
       <c r="D754" s="16"/>
       <c r="G754" s="16"/>
     </row>
-    <row r="755">
+    <row r="755" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C755" s="16"/>
       <c r="D755" s="16"/>
       <c r="G755" s="16"/>
     </row>
-    <row r="756">
+    <row r="756" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C756" s="16"/>
       <c r="D756" s="16"/>
       <c r="G756" s="16"/>
     </row>
-    <row r="757">
+    <row r="757" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C757" s="16"/>
       <c r="D757" s="16"/>
       <c r="G757" s="16"/>
     </row>
-    <row r="758">
+    <row r="758" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C758" s="16"/>
       <c r="D758" s="16"/>
       <c r="G758" s="16"/>
     </row>
-    <row r="759">
+    <row r="759" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C759" s="16"/>
       <c r="D759" s="16"/>
       <c r="G759" s="16"/>
     </row>
-    <row r="760">
+    <row r="760" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C760" s="16"/>
       <c r="D760" s="16"/>
       <c r="G760" s="16"/>
     </row>
-    <row r="761">
+    <row r="761" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C761" s="16"/>
       <c r="D761" s="16"/>
       <c r="G761" s="16"/>
     </row>
-    <row r="762">
+    <row r="762" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C762" s="16"/>
       <c r="D762" s="16"/>
       <c r="G762" s="16"/>
     </row>
-    <row r="763">
+    <row r="763" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C763" s="16"/>
       <c r="D763" s="16"/>
       <c r="G763" s="16"/>
     </row>
-    <row r="764">
+    <row r="764" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C764" s="16"/>
       <c r="D764" s="16"/>
       <c r="G764" s="16"/>
     </row>
-    <row r="765">
+    <row r="765" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C765" s="16"/>
       <c r="D765" s="16"/>
       <c r="G765" s="16"/>
     </row>
-    <row r="766">
+    <row r="766" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C766" s="16"/>
       <c r="D766" s="16"/>
       <c r="G766" s="16"/>
     </row>
-    <row r="767">
+    <row r="767" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C767" s="16"/>
       <c r="D767" s="16"/>
       <c r="G767" s="16"/>
     </row>
-    <row r="768">
+    <row r="768" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C768" s="16"/>
       <c r="D768" s="16"/>
       <c r="G768" s="16"/>
     </row>
-    <row r="769">
+    <row r="769" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C769" s="16"/>
       <c r="D769" s="16"/>
       <c r="G769" s="16"/>
     </row>
-    <row r="770">
+    <row r="770" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C770" s="16"/>
       <c r="D770" s="16"/>
       <c r="G770" s="16"/>
     </row>
-    <row r="771">
+    <row r="771" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C771" s="16"/>
       <c r="D771" s="16"/>
       <c r="G771" s="16"/>
     </row>
-    <row r="772">
+    <row r="772" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C772" s="16"/>
       <c r="D772" s="16"/>
       <c r="G772" s="16"/>
     </row>
-    <row r="773">
+    <row r="773" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C773" s="16"/>
       <c r="D773" s="16"/>
       <c r="G773" s="16"/>
     </row>
-    <row r="774">
+    <row r="774" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C774" s="16"/>
       <c r="D774" s="16"/>
       <c r="G774" s="16"/>
     </row>
-    <row r="775">
+    <row r="775" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C775" s="16"/>
       <c r="D775" s="16"/>
       <c r="G775" s="16"/>
     </row>
-    <row r="776">
+    <row r="776" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C776" s="16"/>
       <c r="D776" s="16"/>
       <c r="G776" s="16"/>
     </row>
-    <row r="777">
+    <row r="777" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C777" s="16"/>
       <c r="D777" s="16"/>
       <c r="G777" s="16"/>
     </row>
-    <row r="778">
+    <row r="778" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C778" s="16"/>
       <c r="D778" s="16"/>
       <c r="G778" s="16"/>
     </row>
-    <row r="779">
+    <row r="779" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C779" s="16"/>
       <c r="D779" s="16"/>
       <c r="G779" s="16"/>
     </row>
-    <row r="780">
+    <row r="780" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C780" s="16"/>
       <c r="D780" s="16"/>
       <c r="G780" s="16"/>
     </row>
-    <row r="781">
+    <row r="781" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C781" s="16"/>
       <c r="D781" s="16"/>
       <c r="G781" s="16"/>
     </row>
-    <row r="782">
+    <row r="782" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C782" s="16"/>
       <c r="D782" s="16"/>
       <c r="G782" s="16"/>
     </row>
-    <row r="783">
+    <row r="783" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C783" s="16"/>
       <c r="D783" s="16"/>
       <c r="G783" s="16"/>
     </row>
-    <row r="784">
+    <row r="784" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C784" s="16"/>
       <c r="D784" s="16"/>
       <c r="G784" s="16"/>
     </row>
-    <row r="785">
+    <row r="785" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C785" s="16"/>
       <c r="D785" s="16"/>
       <c r="G785" s="16"/>
     </row>
-    <row r="786">
+    <row r="786" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C786" s="16"/>
       <c r="D786" s="16"/>
       <c r="G786" s="16"/>
     </row>
-    <row r="787">
+    <row r="787" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C787" s="16"/>
       <c r="D787" s="16"/>
       <c r="G787" s="16"/>
     </row>
-    <row r="788">
+    <row r="788" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C788" s="16"/>
       <c r="D788" s="16"/>
       <c r="G788" s="16"/>
     </row>
-    <row r="789">
+    <row r="789" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C789" s="16"/>
       <c r="D789" s="16"/>
       <c r="G789" s="16"/>
     </row>
-    <row r="790">
+    <row r="790" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C790" s="16"/>
       <c r="D790" s="16"/>
       <c r="G790" s="16"/>
     </row>
-    <row r="791">
+    <row r="791" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C791" s="16"/>
       <c r="D791" s="16"/>
       <c r="G791" s="16"/>
     </row>
-    <row r="792">
+    <row r="792" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C792" s="16"/>
       <c r="D792" s="16"/>
       <c r="G792" s="16"/>
     </row>
-    <row r="793">
+    <row r="793" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C793" s="16"/>
       <c r="D793" s="16"/>
       <c r="G793" s="16"/>
     </row>
-    <row r="794">
+    <row r="794" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C794" s="16"/>
       <c r="D794" s="16"/>
       <c r="G794" s="16"/>
     </row>
-    <row r="795">
+    <row r="795" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C795" s="16"/>
       <c r="D795" s="16"/>
       <c r="G795" s="16"/>
     </row>
-    <row r="796">
+    <row r="796" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C796" s="16"/>
       <c r="D796" s="16"/>
       <c r="G796" s="16"/>
     </row>
-    <row r="797">
+    <row r="797" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C797" s="16"/>
       <c r="D797" s="16"/>
       <c r="G797" s="16"/>
     </row>
-    <row r="798">
+    <row r="798" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C798" s="16"/>
       <c r="D798" s="16"/>
       <c r="G798" s="16"/>
     </row>
-    <row r="799">
+    <row r="799" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C799" s="16"/>
       <c r="D799" s="16"/>
       <c r="G799" s="16"/>
     </row>
-    <row r="800">
+    <row r="800" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C800" s="16"/>
       <c r="D800" s="16"/>
       <c r="G800" s="16"/>
     </row>
-    <row r="801">
+    <row r="801" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C801" s="16"/>
       <c r="D801" s="16"/>
       <c r="G801" s="16"/>
     </row>
-    <row r="802">
+    <row r="802" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C802" s="16"/>
       <c r="D802" s="16"/>
       <c r="G802" s="16"/>
     </row>
-    <row r="803">
+    <row r="803" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C803" s="16"/>
       <c r="D803" s="16"/>
       <c r="G803" s="16"/>
     </row>
-    <row r="804">
+    <row r="804" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C804" s="16"/>
       <c r="D804" s="16"/>
       <c r="G804" s="16"/>
     </row>
-    <row r="805">
+    <row r="805" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C805" s="16"/>
       <c r="D805" s="16"/>
       <c r="G805" s="16"/>
     </row>
-    <row r="806">
+    <row r="806" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C806" s="16"/>
       <c r="D806" s="16"/>
       <c r="G806" s="16"/>
     </row>
-    <row r="807">
+    <row r="807" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C807" s="16"/>
       <c r="D807" s="16"/>
       <c r="G807" s="16"/>
     </row>
-    <row r="808">
+    <row r="808" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C808" s="16"/>
       <c r="D808" s="16"/>
       <c r="G808" s="16"/>
     </row>
-    <row r="809">
+    <row r="809" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C809" s="16"/>
       <c r="D809" s="16"/>
       <c r="G809" s="16"/>
     </row>
-    <row r="810">
+    <row r="810" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C810" s="16"/>
       <c r="D810" s="16"/>
       <c r="G810" s="16"/>
     </row>
-    <row r="811">
+    <row r="811" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C811" s="16"/>
       <c r="D811" s="16"/>
       <c r="G811" s="16"/>
     </row>
-    <row r="812">
+    <row r="812" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C812" s="16"/>
       <c r="D812" s="16"/>
       <c r="G812" s="16"/>
     </row>
-    <row r="813">
+    <row r="813" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C813" s="16"/>
       <c r="D813" s="16"/>
       <c r="G813" s="16"/>
     </row>
-    <row r="814">
+    <row r="814" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C814" s="16"/>
       <c r="D814" s="16"/>
       <c r="G814" s="16"/>
     </row>
-    <row r="815">
+    <row r="815" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C815" s="16"/>
       <c r="D815" s="16"/>
       <c r="G815" s="16"/>
     </row>
-    <row r="816">
+    <row r="816" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C816" s="16"/>
       <c r="D816" s="16"/>
       <c r="G816" s="16"/>
     </row>
-    <row r="817">
+    <row r="817" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C817" s="16"/>
       <c r="D817" s="16"/>
       <c r="G817" s="16"/>
     </row>
-    <row r="818">
+    <row r="818" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C818" s="16"/>
       <c r="D818" s="16"/>
       <c r="G818" s="16"/>
     </row>
-    <row r="819">
+    <row r="819" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C819" s="16"/>
       <c r="D819" s="16"/>
       <c r="G819" s="16"/>
     </row>
-    <row r="820">
+    <row r="820" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C820" s="16"/>
       <c r="D820" s="16"/>
       <c r="G820" s="16"/>
     </row>
-    <row r="821">
+    <row r="821" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C821" s="16"/>
       <c r="D821" s="16"/>
       <c r="G821" s="16"/>
     </row>
-    <row r="822">
+    <row r="822" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C822" s="16"/>
       <c r="D822" s="16"/>
       <c r="G822" s="16"/>
     </row>
-    <row r="823">
+    <row r="823" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C823" s="16"/>
       <c r="D823" s="16"/>
       <c r="G823" s="16"/>
     </row>
-    <row r="824">
+    <row r="824" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C824" s="16"/>
       <c r="D824" s="16"/>
       <c r="G824" s="16"/>
     </row>
-    <row r="825">
+    <row r="825" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C825" s="16"/>
       <c r="D825" s="16"/>
       <c r="G825" s="16"/>
     </row>
-    <row r="826">
+    <row r="826" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C826" s="16"/>
       <c r="D826" s="16"/>
       <c r="G826" s="16"/>
     </row>
-    <row r="827">
+    <row r="827" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C827" s="16"/>
       <c r="D827" s="16"/>
       <c r="G827" s="16"/>
     </row>
-    <row r="828">
+    <row r="828" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C828" s="16"/>
       <c r="D828" s="16"/>
       <c r="G828" s="16"/>
     </row>
-    <row r="829">
+    <row r="829" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C829" s="16"/>
       <c r="D829" s="16"/>
       <c r="G829" s="16"/>
     </row>
-    <row r="830">
+    <row r="830" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C830" s="16"/>
       <c r="D830" s="16"/>
       <c r="G830" s="16"/>
     </row>
-    <row r="831">
+    <row r="831" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C831" s="16"/>
       <c r="D831" s="16"/>
       <c r="G831" s="16"/>
     </row>
-    <row r="832">
+    <row r="832" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C832" s="16"/>
       <c r="D832" s="16"/>
       <c r="G832" s="16"/>
     </row>
-    <row r="833">
+    <row r="833" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C833" s="16"/>
       <c r="D833" s="16"/>
       <c r="G833" s="16"/>
     </row>
-    <row r="834">
+    <row r="834" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C834" s="16"/>
       <c r="D834" s="16"/>
       <c r="G834" s="16"/>
     </row>
-    <row r="835">
+    <row r="835" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C835" s="16"/>
       <c r="D835" s="16"/>
       <c r="G835" s="16"/>
     </row>
-    <row r="836">
+    <row r="836" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C836" s="16"/>
       <c r="D836" s="16"/>
       <c r="G836" s="16"/>
     </row>
-    <row r="837">
+    <row r="837" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C837" s="16"/>
       <c r="D837" s="16"/>
       <c r="G837" s="16"/>
     </row>
-    <row r="838">
+    <row r="838" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C838" s="16"/>
       <c r="D838" s="16"/>
       <c r="G838" s="16"/>
     </row>
-    <row r="839">
+    <row r="839" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C839" s="16"/>
       <c r="D839" s="16"/>
       <c r="G839" s="16"/>
     </row>
-    <row r="840">
+    <row r="840" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C840" s="16"/>
       <c r="D840" s="16"/>
       <c r="G840" s="16"/>
     </row>
-    <row r="841">
+    <row r="841" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C841" s="16"/>
       <c r="D841" s="16"/>
       <c r="G841" s="16"/>
     </row>
-    <row r="842">
+    <row r="842" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C842" s="16"/>
       <c r="D842" s="16"/>
       <c r="G842" s="16"/>
     </row>
-    <row r="843">
+    <row r="843" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C843" s="16"/>
       <c r="D843" s="16"/>
       <c r="G843" s="16"/>
     </row>
-    <row r="844">
+    <row r="844" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C844" s="16"/>
       <c r="D844" s="16"/>
       <c r="G844" s="16"/>
     </row>
-    <row r="845">
+    <row r="845" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C845" s="16"/>
       <c r="D845" s="16"/>
       <c r="G845" s="16"/>
     </row>
-    <row r="846">
+    <row r="846" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C846" s="16"/>
       <c r="D846" s="16"/>
       <c r="G846" s="16"/>
     </row>
-    <row r="847">
+    <row r="847" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C847" s="16"/>
       <c r="D847" s="16"/>
       <c r="G847" s="16"/>
     </row>
-    <row r="848">
+    <row r="848" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C848" s="16"/>
       <c r="D848" s="16"/>
       <c r="G848" s="16"/>
     </row>
-    <row r="849">
+    <row r="849" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C849" s="16"/>
       <c r="D849" s="16"/>
       <c r="G849" s="16"/>
     </row>
-    <row r="850">
+    <row r="850" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C850" s="16"/>
       <c r="D850" s="16"/>
       <c r="G850" s="16"/>
     </row>
-    <row r="851">
+    <row r="851" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C851" s="16"/>
       <c r="D851" s="16"/>
       <c r="G851" s="16"/>
     </row>
-    <row r="852">
+    <row r="852" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C852" s="16"/>
       <c r="D852" s="16"/>
       <c r="G852" s="16"/>
     </row>
-    <row r="853">
+    <row r="853" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C853" s="16"/>
       <c r="D853" s="16"/>
       <c r="G853" s="16"/>
     </row>
-    <row r="854">
+    <row r="854" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C854" s="16"/>
       <c r="D854" s="16"/>
       <c r="G854" s="16"/>
     </row>
-    <row r="855">
+    <row r="855" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C855" s="16"/>
       <c r="D855" s="16"/>
       <c r="G855" s="16"/>
     </row>
-    <row r="856">
+    <row r="856" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C856" s="16"/>
       <c r="D856" s="16"/>
       <c r="G856" s="16"/>
     </row>
-    <row r="857">
+    <row r="857" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C857" s="16"/>
       <c r="D857" s="16"/>
       <c r="G857" s="16"/>
     </row>
-    <row r="858">
+    <row r="858" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C858" s="16"/>
       <c r="D858" s="16"/>
       <c r="G858" s="16"/>
     </row>
-    <row r="859">
+    <row r="859" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C859" s="16"/>
       <c r="D859" s="16"/>
       <c r="G859" s="16"/>
     </row>
-    <row r="860">
+    <row r="860" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C860" s="16"/>
       <c r="D860" s="16"/>
       <c r="G860" s="16"/>
     </row>
-    <row r="861">
+    <row r="861" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C861" s="16"/>
       <c r="D861" s="16"/>
       <c r="G861" s="16"/>
     </row>
-    <row r="862">
+    <row r="862" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C862" s="16"/>
       <c r="D862" s="16"/>
       <c r="G862" s="16"/>
     </row>
-    <row r="863">
+    <row r="863" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C863" s="16"/>
       <c r="D863" s="16"/>
       <c r="G863" s="16"/>
     </row>
-    <row r="864">
+    <row r="864" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C864" s="16"/>
       <c r="D864" s="16"/>
       <c r="G864" s="16"/>
     </row>
-    <row r="865">
+    <row r="865" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C865" s="16"/>
       <c r="D865" s="16"/>
       <c r="G865" s="16"/>
     </row>
-    <row r="866">
+    <row r="866" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C866" s="16"/>
       <c r="D866" s="16"/>
       <c r="G866" s="16"/>
     </row>
-    <row r="867">
+    <row r="867" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C867" s="16"/>
       <c r="D867" s="16"/>
       <c r="G867" s="16"/>
     </row>
-    <row r="868">
+    <row r="868" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C868" s="16"/>
       <c r="D868" s="16"/>
       <c r="G868" s="16"/>
     </row>
-    <row r="869">
+    <row r="869" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C869" s="16"/>
       <c r="D869" s="16"/>
       <c r="G869" s="16"/>
     </row>
-    <row r="870">
+    <row r="870" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C870" s="16"/>
       <c r="D870" s="16"/>
       <c r="G870" s="16"/>
     </row>
-    <row r="871">
+    <row r="871" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C871" s="16"/>
       <c r="D871" s="16"/>
       <c r="G871" s="16"/>
     </row>
-    <row r="872">
+    <row r="872" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C872" s="16"/>
       <c r="D872" s="16"/>
       <c r="G872" s="16"/>
     </row>
-    <row r="873">
+    <row r="873" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C873" s="16"/>
       <c r="D873" s="16"/>
       <c r="G873" s="16"/>
     </row>
-    <row r="874">
+    <row r="874" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C874" s="16"/>
       <c r="D874" s="16"/>
       <c r="G874" s="16"/>
     </row>
-    <row r="875">
+    <row r="875" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C875" s="16"/>
       <c r="D875" s="16"/>
       <c r="G875" s="16"/>
     </row>
-    <row r="876">
+    <row r="876" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C876" s="16"/>
       <c r="D876" s="16"/>
       <c r="G876" s="16"/>
     </row>
-    <row r="877">
+    <row r="877" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C877" s="16"/>
       <c r="D877" s="16"/>
       <c r="G877" s="16"/>
     </row>
-    <row r="878">
+    <row r="878" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C878" s="16"/>
       <c r="D878" s="16"/>
       <c r="G878" s="16"/>
     </row>
-    <row r="879">
+    <row r="879" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C879" s="16"/>
       <c r="D879" s="16"/>
       <c r="G879" s="16"/>
     </row>
-    <row r="880">
+    <row r="880" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C880" s="16"/>
       <c r="D880" s="16"/>
       <c r="G880" s="16"/>
     </row>
-    <row r="881">
+    <row r="881" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C881" s="16"/>
       <c r="D881" s="16"/>
       <c r="G881" s="16"/>
     </row>
-    <row r="882">
+    <row r="882" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C882" s="16"/>
       <c r="D882" s="16"/>
       <c r="G882" s="16"/>
     </row>
-    <row r="883">
+    <row r="883" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C883" s="16"/>
       <c r="D883" s="16"/>
       <c r="G883" s="16"/>
     </row>
-    <row r="884">
+    <row r="884" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C884" s="16"/>
       <c r="D884" s="16"/>
       <c r="G884" s="16"/>
     </row>
-    <row r="885">
+    <row r="885" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C885" s="16"/>
       <c r="D885" s="16"/>
       <c r="G885" s="16"/>
     </row>
-    <row r="886">
+    <row r="886" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C886" s="16"/>
       <c r="D886" s="16"/>
       <c r="G886" s="16"/>
     </row>
-    <row r="887">
+    <row r="887" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C887" s="16"/>
       <c r="D887" s="16"/>
       <c r="G887" s="16"/>
     </row>
-    <row r="888">
+    <row r="888" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C888" s="16"/>
       <c r="D888" s="16"/>
       <c r="G888" s="16"/>
     </row>
-    <row r="889">
+    <row r="889" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C889" s="16"/>
       <c r="D889" s="16"/>
       <c r="G889" s="16"/>
     </row>
-    <row r="890">
+    <row r="890" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C890" s="16"/>
       <c r="D890" s="16"/>
       <c r="G890" s="16"/>
     </row>
-    <row r="891">
+    <row r="891" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C891" s="16"/>
       <c r="D891" s="16"/>
       <c r="G891" s="16"/>
     </row>
-    <row r="892">
+    <row r="892" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C892" s="16"/>
       <c r="D892" s="16"/>
       <c r="G892" s="16"/>
     </row>
-    <row r="893">
+    <row r="893" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C893" s="16"/>
       <c r="D893" s="16"/>
       <c r="G893" s="16"/>
     </row>
-    <row r="894">
+    <row r="894" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C894" s="16"/>
       <c r="D894" s="16"/>
       <c r="G894" s="16"/>
     </row>
-    <row r="895">
+    <row r="895" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C895" s="16"/>
       <c r="D895" s="16"/>
       <c r="G895" s="16"/>
     </row>
-    <row r="896">
+    <row r="896" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C896" s="16"/>
       <c r="D896" s="16"/>
       <c r="G896" s="16"/>
     </row>
-    <row r="897">
+    <row r="897" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C897" s="16"/>
       <c r="D897" s="16"/>
       <c r="G897" s="16"/>
     </row>
-    <row r="898">
+    <row r="898" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C898" s="16"/>
       <c r="D898" s="16"/>
       <c r="G898" s="16"/>
     </row>
-    <row r="899">
+    <row r="899" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C899" s="16"/>
       <c r="D899" s="16"/>
       <c r="G899" s="16"/>
     </row>
-    <row r="900">
+    <row r="900" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C900" s="16"/>
       <c r="D900" s="16"/>
       <c r="G900" s="16"/>
     </row>
-    <row r="901">
+    <row r="901" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C901" s="16"/>
       <c r="D901" s="16"/>
       <c r="G901" s="16"/>
     </row>
-    <row r="902">
+    <row r="902" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C902" s="16"/>
       <c r="D902" s="16"/>
       <c r="G902" s="16"/>
     </row>
-    <row r="903">
+    <row r="903" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C903" s="16"/>
       <c r="D903" s="16"/>
       <c r="G903" s="16"/>
     </row>
-    <row r="904">
+    <row r="904" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C904" s="16"/>
       <c r="D904" s="16"/>
       <c r="G904" s="16"/>
     </row>
-    <row r="905">
+    <row r="905" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C905" s="16"/>
       <c r="D905" s="16"/>
       <c r="G905" s="16"/>
     </row>
-    <row r="906">
+    <row r="906" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C906" s="16"/>
       <c r="D906" s="16"/>
       <c r="G906" s="16"/>
     </row>
-    <row r="907">
+    <row r="907" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C907" s="16"/>
       <c r="D907" s="16"/>
       <c r="G907" s="16"/>
     </row>
-    <row r="908">
+    <row r="908" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C908" s="16"/>
       <c r="D908" s="16"/>
       <c r="G908" s="16"/>
     </row>
-    <row r="909">
+    <row r="909" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C909" s="16"/>
       <c r="D909" s="16"/>
       <c r="G909" s="16"/>
     </row>
-    <row r="910">
+    <row r="910" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C910" s="16"/>
       <c r="D910" s="16"/>
       <c r="G910" s="16"/>
     </row>
-    <row r="911">
+    <row r="911" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C911" s="16"/>
       <c r="D911" s="16"/>
       <c r="G911" s="16"/>
     </row>
-    <row r="912">
+    <row r="912" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C912" s="16"/>
       <c r="D912" s="16"/>
       <c r="G912" s="16"/>
     </row>
-    <row r="913">
+    <row r="913" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C913" s="16"/>
       <c r="D913" s="16"/>
       <c r="G913" s="16"/>
     </row>
-    <row r="914">
+    <row r="914" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C914" s="16"/>
       <c r="D914" s="16"/>
       <c r="G914" s="16"/>
     </row>
-    <row r="915">
+    <row r="915" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C915" s="16"/>
       <c r="D915" s="16"/>
       <c r="G915" s="16"/>
     </row>
-    <row r="916">
+    <row r="916" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C916" s="16"/>
       <c r="D916" s="16"/>
       <c r="G916" s="16"/>
     </row>
-    <row r="917">
+    <row r="917" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C917" s="16"/>
       <c r="D917" s="16"/>
       <c r="G917" s="16"/>
     </row>
-    <row r="918">
+    <row r="918" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C918" s="16"/>
       <c r="D918" s="16"/>
       <c r="G918" s="16"/>
     </row>
-    <row r="919">
+    <row r="919" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C919" s="16"/>
       <c r="D919" s="16"/>
       <c r="G919" s="16"/>
     </row>
-    <row r="920">
+    <row r="920" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C920" s="16"/>
       <c r="D920" s="16"/>
       <c r="G920" s="16"/>
     </row>
-    <row r="921">
+    <row r="921" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C921" s="16"/>
       <c r="D921" s="16"/>
       <c r="G921" s="16"/>
     </row>
-    <row r="922">
+    <row r="922" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C922" s="16"/>
       <c r="D922" s="16"/>
       <c r="G922" s="16"/>
     </row>
-    <row r="923">
+    <row r="923" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C923" s="16"/>
       <c r="D923" s="16"/>
       <c r="G923" s="16"/>
     </row>
-    <row r="924">
+    <row r="924" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C924" s="16"/>
       <c r="D924" s="16"/>
       <c r="G924" s="16"/>
     </row>
-    <row r="925">
+    <row r="925" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C925" s="16"/>
       <c r="D925" s="16"/>
       <c r="G925" s="16"/>
     </row>
-    <row r="926">
+    <row r="926" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C926" s="16"/>
       <c r="D926" s="16"/>
       <c r="G926" s="16"/>
     </row>
-    <row r="927">
+    <row r="927" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C927" s="16"/>
       <c r="D927" s="16"/>
       <c r="G927" s="16"/>
     </row>
-    <row r="928">
+    <row r="928" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C928" s="16"/>
       <c r="D928" s="16"/>
       <c r="G928" s="16"/>
     </row>
-    <row r="929">
+    <row r="929" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C929" s="16"/>
       <c r="D929" s="16"/>
       <c r="G929" s="16"/>
     </row>
-    <row r="930">
+    <row r="930" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C930" s="16"/>
       <c r="D930" s="16"/>
       <c r="G930" s="16"/>
     </row>
-    <row r="931">
+    <row r="931" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C931" s="16"/>
       <c r="D931" s="16"/>
       <c r="G931" s="16"/>
     </row>
-    <row r="932">
+    <row r="932" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C932" s="16"/>
       <c r="D932" s="16"/>
       <c r="G932" s="16"/>
     </row>
-    <row r="933">
+    <row r="933" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C933" s="16"/>
       <c r="D933" s="16"/>
       <c r="G933" s="16"/>
     </row>
-    <row r="934">
+    <row r="934" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C934" s="16"/>
       <c r="D934" s="16"/>
       <c r="G934" s="16"/>
     </row>
-    <row r="935">
+    <row r="935" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C935" s="16"/>
       <c r="D935" s="16"/>
       <c r="G935" s="16"/>
     </row>
-    <row r="936">
+    <row r="936" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C936" s="16"/>
       <c r="D936" s="16"/>
       <c r="G936" s="16"/>
     </row>
-    <row r="937">
+    <row r="937" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C937" s="16"/>
       <c r="D937" s="16"/>
       <c r="G937" s="16"/>
     </row>
-    <row r="938">
+    <row r="938" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C938" s="16"/>
       <c r="D938" s="16"/>
       <c r="G938" s="16"/>
     </row>
-    <row r="939">
+    <row r="939" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C939" s="16"/>
       <c r="D939" s="16"/>
       <c r="G939" s="16"/>
     </row>
-    <row r="940">
+    <row r="940" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C940" s="16"/>
       <c r="D940" s="16"/>
       <c r="G940" s="16"/>
     </row>
-    <row r="941">
+    <row r="941" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C941" s="16"/>
       <c r="D941" s="16"/>
       <c r="G941" s="16"/>
     </row>
-    <row r="942">
+    <row r="942" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C942" s="16"/>
       <c r="D942" s="16"/>
       <c r="G942" s="16"/>
     </row>
-    <row r="943">
+    <row r="943" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C943" s="16"/>
       <c r="D943" s="16"/>
       <c r="G943" s="16"/>
     </row>
-    <row r="944">
+    <row r="944" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C944" s="16"/>
       <c r="D944" s="16"/>
       <c r="G944" s="16"/>
     </row>
-    <row r="945">
+    <row r="945" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C945" s="16"/>
       <c r="D945" s="16"/>
       <c r="G945" s="16"/>
     </row>
-    <row r="946">
+    <row r="946" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C946" s="16"/>
       <c r="D946" s="16"/>
       <c r="G946" s="16"/>
     </row>
-    <row r="947">
+    <row r="947" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C947" s="16"/>
       <c r="D947" s="16"/>
       <c r="G947" s="16"/>
     </row>
-    <row r="948">
+    <row r="948" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C948" s="16"/>
       <c r="D948" s="16"/>
       <c r="G948" s="16"/>
     </row>
-    <row r="949">
+    <row r="949" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C949" s="16"/>
       <c r="D949" s="16"/>
       <c r="G949" s="16"/>
     </row>
-    <row r="950">
+    <row r="950" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C950" s="16"/>
       <c r="D950" s="16"/>
       <c r="G950" s="16"/>
     </row>
-    <row r="951">
+    <row r="951" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C951" s="16"/>
       <c r="D951" s="16"/>
       <c r="G951" s="16"/>
     </row>
-    <row r="952">
+    <row r="952" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C952" s="16"/>
       <c r="D952" s="16"/>
       <c r="G952" s="16"/>
     </row>
-    <row r="953">
+    <row r="953" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C953" s="16"/>
       <c r="D953" s="16"/>
       <c r="G953" s="16"/>
     </row>
-    <row r="954">
+    <row r="954" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C954" s="16"/>
       <c r="D954" s="16"/>
       <c r="G954" s="16"/>
     </row>
-    <row r="955">
+    <row r="955" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C955" s="16"/>
       <c r="D955" s="16"/>
       <c r="G955" s="16"/>
     </row>
-    <row r="956">
+    <row r="956" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C956" s="16"/>
       <c r="D956" s="16"/>
       <c r="G956" s="16"/>
     </row>
-    <row r="957">
+    <row r="957" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C957" s="16"/>
       <c r="D957" s="16"/>
       <c r="G957" s="16"/>
     </row>
-    <row r="958">
+    <row r="958" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C958" s="16"/>
       <c r="D958" s="16"/>
       <c r="G958" s="16"/>
     </row>
-    <row r="959">
+    <row r="959" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C959" s="16"/>
       <c r="D959" s="16"/>
       <c r="G959" s="16"/>
     </row>
-    <row r="960">
+    <row r="960" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C960" s="16"/>
       <c r="D960" s="16"/>
       <c r="G960" s="16"/>
     </row>
-    <row r="961">
+    <row r="961" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C961" s="16"/>
       <c r="D961" s="16"/>
       <c r="G961" s="16"/>
     </row>
-    <row r="962">
+    <row r="962" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C962" s="16"/>
       <c r="D962" s="16"/>
       <c r="G962" s="16"/>
     </row>
-    <row r="963">
+    <row r="963" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C963" s="16"/>
       <c r="D963" s="16"/>
       <c r="G963" s="16"/>
     </row>
-    <row r="964">
+    <row r="964" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C964" s="16"/>
       <c r="D964" s="16"/>
       <c r="G964" s="16"/>
     </row>
-    <row r="965">
+    <row r="965" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C965" s="16"/>
       <c r="D965" s="16"/>
       <c r="G965" s="16"/>
     </row>
-    <row r="966">
+    <row r="966" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C966" s="16"/>
       <c r="D966" s="16"/>
       <c r="G966" s="16"/>
     </row>
-    <row r="967">
+    <row r="967" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C967" s="16"/>
       <c r="D967" s="16"/>
       <c r="G967" s="16"/>
     </row>
-    <row r="968">
+    <row r="968" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C968" s="16"/>
       <c r="D968" s="16"/>
       <c r="G968" s="16"/>
     </row>
-    <row r="969">
+    <row r="969" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C969" s="16"/>
       <c r="D969" s="16"/>
       <c r="G969" s="16"/>
     </row>
-    <row r="970">
+    <row r="970" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C970" s="16"/>
       <c r="D970" s="16"/>
       <c r="G970" s="16"/>
     </row>
-    <row r="971">
+    <row r="971" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C971" s="16"/>
       <c r="D971" s="16"/>
       <c r="G971" s="16"/>
     </row>
-    <row r="972">
+    <row r="972" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C972" s="16"/>
       <c r="D972" s="16"/>
       <c r="G972" s="16"/>
     </row>
-    <row r="973">
+    <row r="973" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C973" s="16"/>
       <c r="D973" s="16"/>
       <c r="G973" s="16"/>
     </row>
-    <row r="974">
+    <row r="974" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C974" s="16"/>
       <c r="D974" s="16"/>
       <c r="G974" s="16"/>
     </row>
-    <row r="975">
+    <row r="975" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C975" s="16"/>
       <c r="D975" s="16"/>
       <c r="G975" s="16"/>
     </row>
-    <row r="976">
+    <row r="976" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C976" s="16"/>
       <c r="D976" s="16"/>
       <c r="G976" s="16"/>
     </row>
-    <row r="977">
+    <row r="977" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C977" s="16"/>
       <c r="D977" s="16"/>
       <c r="G977" s="16"/>
     </row>
-    <row r="978">
+    <row r="978" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C978" s="16"/>
       <c r="D978" s="16"/>
       <c r="G978" s="16"/>
     </row>
-    <row r="979">
+    <row r="979" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C979" s="16"/>
       <c r="D979" s="16"/>
       <c r="G979" s="16"/>
     </row>
-    <row r="980">
+    <row r="980" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C980" s="16"/>
       <c r="D980" s="16"/>
       <c r="G980" s="16"/>
     </row>
-    <row r="981">
+    <row r="981" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C981" s="16"/>
       <c r="D981" s="16"/>
       <c r="G981" s="16"/>
     </row>
-    <row r="982">
+    <row r="982" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C982" s="16"/>
       <c r="D982" s="16"/>
       <c r="G982" s="16"/>
     </row>
-    <row r="983">
+    <row r="983" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C983" s="16"/>
       <c r="D983" s="16"/>
       <c r="G983" s="16"/>
     </row>
-    <row r="984">
+    <row r="984" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C984" s="16"/>
       <c r="D984" s="16"/>
       <c r="G984" s="16"/>
     </row>
-    <row r="985">
+    <row r="985" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C985" s="16"/>
       <c r="D985" s="16"/>
       <c r="G985" s="16"/>
     </row>
-    <row r="986">
+    <row r="986" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C986" s="16"/>
       <c r="D986" s="16"/>
       <c r="G986" s="16"/>
     </row>
-    <row r="987">
+    <row r="987" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C987" s="16"/>
       <c r="D987" s="16"/>
       <c r="G987" s="16"/>
     </row>
-    <row r="988">
+    <row r="988" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C988" s="16"/>
       <c r="D988" s="16"/>
       <c r="G988" s="16"/>
     </row>
-    <row r="989">
+    <row r="989" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C989" s="16"/>
       <c r="D989" s="16"/>
       <c r="G989" s="16"/>
     </row>
-    <row r="990">
+    <row r="990" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C990" s="16"/>
       <c r="D990" s="16"/>
       <c r="G990" s="16"/>
     </row>
-    <row r="991">
+    <row r="991" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C991" s="16"/>
       <c r="D991" s="16"/>
       <c r="G991" s="16"/>
     </row>
-    <row r="992">
+    <row r="992" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C992" s="16"/>
       <c r="D992" s="16"/>
       <c r="G992" s="16"/>
     </row>
-    <row r="993">
+    <row r="993" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C993" s="16"/>
       <c r="D993" s="16"/>
       <c r="G993" s="16"/>
     </row>
-    <row r="994">
+    <row r="994" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C994" s="16"/>
       <c r="D994" s="16"/>
       <c r="G994" s="16"/>
     </row>
-    <row r="995">
+    <row r="995" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C995" s="16"/>
       <c r="D995" s="16"/>
       <c r="G995" s="16"/>
     </row>
-    <row r="996">
+    <row r="996" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C996" s="16"/>
       <c r="D996" s="16"/>
       <c r="G996" s="16"/>
     </row>
-    <row r="997">
+    <row r="997" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C997" s="16"/>
       <c r="D997" s="16"/>
       <c r="G997" s="16"/>
     </row>
-    <row r="998">
+    <row r="998" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C998" s="16"/>
       <c r="D998" s="16"/>
       <c r="G998" s="16"/>
     </row>
-    <row r="999">
+    <row r="999" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C999" s="16"/>
       <c r="D999" s="16"/>
       <c r="G999" s="16"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C1000" s="16"/>
       <c r="D1000" s="16"/>
       <c r="G1000" s="16"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C1001" s="16"/>
       <c r="D1001" s="16"/>
       <c r="G1001" s="16"/>
     </row>
-    <row r="1002">
+    <row r="1002" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C1002" s="16"/>
       <c r="D1002" s="16"/>
       <c r="G1002" s="16"/>
     </row>
-    <row r="1003">
+    <row r="1003" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C1003" s="16"/>
       <c r="D1003" s="16"/>
       <c r="G1003" s="16"/>
     </row>
-    <row r="1004">
+    <row r="1004" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C1004" s="16"/>
       <c r="D1004" s="16"/>
       <c r="G1004" s="16"/>
     </row>
-    <row r="1005">
+    <row r="1005" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C1005" s="16"/>
       <c r="D1005" s="16"/>
       <c r="G1005" s="16"/>
     </row>
-    <row r="1006">
+    <row r="1006" spans="3:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C1006" s="16"/>
       <c r="D1006" s="16"/>
       <c r="G1006" s="16"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>52</v>
       </c>
@@ -5879,7 +6147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>53</v>
       </c>
@@ -5890,7 +6158,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>53</v>
       </c>
@@ -5901,7 +6169,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
         <v>43</v>
       </c>
@@ -5912,7 +6180,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>43</v>
       </c>
@@ -5923,7 +6191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>43</v>
       </c>
@@ -5934,7 +6202,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
         <v>43</v>
       </c>
@@ -5945,7 +6213,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
         <v>43</v>
       </c>
@@ -5956,7 +6224,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>67</v>
       </c>
@@ -5967,7 +6235,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>67</v>
       </c>
@@ -5978,7 +6246,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
         <v>67</v>
       </c>
@@ -5989,7 +6257,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>74</v>
       </c>
@@ -6000,7 +6268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>74</v>
       </c>
@@ -6011,7 +6279,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
         <v>74</v>
       </c>
@@ -6022,10 +6290,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>